--- a/documentos/cronograma.xlsx
+++ b/documentos/cronograma.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="DATAS" sheetId="8" r:id="rId2"/>
     <sheet name="CRONOGRAMA" sheetId="6" r:id="rId3"/>
-    <sheet name="CRONOGRAMA_DETALHADO" sheetId="12" r:id="rId4"/>
+    <sheet name="DETALHADO" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Dias</t>
   </si>
   <si>
-    <t>Capacidades</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>BackEnd</t>
   </si>
   <si>
@@ -215,319 +209,28 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>NoSQL</t>
-  </si>
-  <si>
-    <t>Início - Documentação
-Início - N:N
-Ajuste Conceitual - Lógico - Representação</t>
-  </si>
-  <si>
-    <t>Modelagem - Representação - Documentação</t>
-  </si>
-  <si>
-    <t>ex: PClinics, Locadora, E-Commerce</t>
-  </si>
-  <si>
-    <t>Projeto</t>
-  </si>
-  <si>
-    <t>Projeto - Gufos</t>
-  </si>
-  <si>
-    <t>Modelagem - DDL - DML - DQL - Documentação</t>
-  </si>
-  <si>
     <t>Exercícios</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Apresentação Semestre
-Apresentação BD
-Conceito Banco de Dados</t>
-  </si>
-  <si>
-    <t>Desafio InLock</t>
-  </si>
-  <si>
-    <t>EstilosController - verbos - lista fixa
-EstiloDomain
-EstiloRepository - lista</t>
-  </si>
-  <si>
-    <t>EstilosController - verbos
-EstiloDomain
-EstiloRepository - bd</t>
-  </si>
-  <si>
-    <t>Início - Gufos
-Entity Framework</t>
-  </si>
-  <si>
-    <t>Categorias
-Eventos</t>
-  </si>
-  <si>
-    <t>Gufos
-JWT</t>
-  </si>
-  <si>
-    <t>Apresentação API
-JSON
-Projeto Senai.Sstop.WebApi</t>
-  </si>
-  <si>
-    <t>Projeto Senai.Sstop.WebApi</t>
-  </si>
-  <si>
-    <t>ex.: Livros</t>
-  </si>
-  <si>
-    <t>Desafio Hroads</t>
-  </si>
-  <si>
-    <t>Desafio Ssolve</t>
-  </si>
-  <si>
-    <t>Apresentação - Mobile
-Comparação - Híbridos, Nativos
-Configuração/Instalação
-Introdução React Native</t>
-  </si>
-  <si>
-    <t>Lista de Eventos</t>
-  </si>
-  <si>
-    <t>Adicionar Exercício</t>
-  </si>
-  <si>
-    <t>Perfil</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>SplashScreen</t>
-  </si>
-  <si>
-    <t>Lista de Eventos + Filtro</t>
-  </si>
-  <si>
-    <t>Desafio</t>
-  </si>
-  <si>
-    <t>Apresentação BD's Não Relacionais
-Introdução MongoDB</t>
-  </si>
-  <si>
-    <t>MongoDB - CRUD</t>
-  </si>
-  <si>
-    <t>Interação - BackEnd/MongoDB</t>
-  </si>
-  <si>
-    <t>React
-Login</t>
-  </si>
-  <si>
-    <t>React
-Eventos</t>
-  </si>
-  <si>
-    <t>Desafio - Roman</t>
-  </si>
-  <si>
-    <t>Desafio - Personagens</t>
-  </si>
-  <si>
-    <t>ex: Optus, MicroManu</t>
-  </si>
-  <si>
-    <t>Introdução - Frameworks FrontEnd
-Introdução - React
-React - Base
-React - Home</t>
-  </si>
-  <si>
-    <t>React - Home
-Categorias
-Componentes - Rodapé</t>
-  </si>
-  <si>
-    <t>ex: Moda, Dps</t>
-  </si>
-  <si>
-    <t>Início - Modelagem - Excel
-Apoio - exemplo-01.xlsx - Psales
-1:1 (Pessoas)
-1:N
-Início - Conceitual - Lógico - Representação</t>
-  </si>
-  <si>
-    <t>Não Feitos
-(Manhã)</t>
-  </si>
-  <si>
-    <t>Não Feitos
-(Tarde)</t>
-  </si>
-  <si>
-    <t>Documentação</t>
-  </si>
-  <si>
-    <t>Início - DDL
-exemplo-ddl.sql</t>
-  </si>
-  <si>
-    <t>Optus</t>
-  </si>
-  <si>
-    <t>exemplo-dql.sql</t>
-  </si>
-  <si>
-    <t>01_roteiro_livros.sql</t>
-  </si>
-  <si>
-    <t>Antecipados</t>
-  </si>
-  <si>
-    <t>Início - DML
-exemplo-dml.sql</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Início - DML
-exemplo-dml.sql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-exemplo-dql.sql</t>
-    </r>
-  </si>
-  <si>
-    <t>Moda, Dps</t>
-  </si>
-  <si>
-    <t>RoteiroSstop (01_roteiro_sstop.sql)
-RoteiroLivros (01_roteiro_livros.sql)</t>
-  </si>
-  <si>
-    <t>ex: Sstop, Livros, Pessoas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optus
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moda, Dps</t>
-    </r>
-  </si>
-  <si>
-    <t>DQL - Gufos</t>
-  </si>
-  <si>
-    <t>Desafio Ssvolve</t>
-  </si>
-  <si>
-    <t>Conteúdo-Adicional</t>
-  </si>
-  <si>
-    <t>Início - Projeto</t>
-  </si>
-  <si>
-    <t>Fim - Projeto</t>
-  </si>
-  <si>
-    <t>Ex.: Peoples</t>
-  </si>
-  <si>
-    <t>ex.: Filmes</t>
-  </si>
-  <si>
-    <t>Verificação de Campos</t>
-  </si>
-  <si>
-    <t>Controller - Domain - Repository - Artistas
-Cadastrar, Listar
-Swagger</t>
-  </si>
-  <si>
-    <t>Swagger</t>
-  </si>
-  <si>
-    <t>Usuários
-JWT
-Swagger</t>
-  </si>
-  <si>
-    <t>Ex.: Ekips</t>
-  </si>
-  <si>
-    <t>Ex.: Optus (Sstop com senha)</t>
-  </si>
-  <si>
-    <t>Ex.: AutoPecas (Trocar AAPM)</t>
-  </si>
-  <si>
-    <t>Interfaces
-Presenças</t>
-  </si>
-  <si>
-    <t>Ex.: AutoPecas</t>
-  </si>
-  <si>
-    <t>FETCH - GET</t>
-  </si>
-  <si>
-    <t>Arrays - Map, Filter, Reduce</t>
-  </si>
-  <si>
-    <t>Apresenação JavaScript
-Início - gufos.js
-(DOM, Id, Class, Criar Elementos)
-XMLHttpRequest - POST</t>
-  </si>
-  <si>
-    <t>Exercícios
-3.frontend.js.ex1.validacoes.docx
-3.frontend.js.ex1.post.docx
-Sstop, validação email</t>
-  </si>
-  <si>
-    <t>Exercícios
-3.frontend.js.ex1.get.docx - sstop
-3.frontend.js.ex4.get.docx - personagens</t>
-  </si>
-  <si>
-    <t>Exercícios
-3.frontend.js.ex2.docx</t>
-  </si>
-  <si>
-    <t>Criar Desafio</t>
+    <t>Conteúdo</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Não Feitos</t>
+  </si>
+  <si>
+    <t>Legendas</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>BD - Relacional</t>
+  </si>
+  <si>
+    <t>BD - NoSQL</t>
   </si>
 </sst>
 </file>
@@ -537,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,29 +278,15 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,18 +367,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -704,37 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -808,43 +460,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -918,21 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -964,34 +571,6 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -1017,17 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1054,60 +622,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1136,254 +669,127 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,7 +1111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1921,17 +1327,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV102"/>
+  <dimension ref="A1:CV147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="67">
-        <v>43851</v>
+        <v>43853</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -2035,508 +1439,639 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
-        <v>43852</v>
+        <v>43854</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A3" s="67">
-        <v>43853</v>
+        <v>43857</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" s="67">
-        <v>43854</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="67">
-        <v>43857</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="67">
-        <v>43858</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="67">
-        <v>43859</v>
+        <v>43861</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="67">
-        <v>43860</v>
+        <v>43864</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="67">
-        <v>43861</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="67">
-        <v>43864</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="67">
-        <v>43865</v>
+        <v>43867</v>
       </c>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" s="67">
-        <v>43866</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="67">
-        <v>43867</v>
+        <v>43871</v>
       </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="67">
-        <v>43868</v>
+        <v>43872</v>
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" s="67">
-        <v>43871</v>
+        <v>43873</v>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="67">
-        <v>43872</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="67">
-        <v>43873</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="67">
-        <v>43874</v>
+        <v>43878</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="67">
-        <v>43875</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="67">
-        <v>43878</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="67">
-        <v>43879</v>
+        <v>43881</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="67">
-        <v>43880</v>
+        <v>43882</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="67">
-        <v>43881</v>
+        <v>43888</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
-        <v>43882</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
-        <v>43888</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
-        <v>43889</v>
+        <v>43893</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
-        <v>43892</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
-        <v>43893</v>
+        <v>43895</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
-        <v>43894</v>
+        <v>43896</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="67">
-        <v>43895</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="67">
-        <v>43896</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="67">
-        <v>43899</v>
+        <v>43901</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
-        <v>43900</v>
+        <v>43902</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="67">
-        <v>43901</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="67">
-        <v>43902</v>
+        <v>43906</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="67">
-        <v>43903</v>
+        <v>43907</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="67">
-        <v>43906</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="67">
-        <v>43907</v>
+        <v>43909</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="67">
-        <v>43908</v>
+        <v>43910</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="67">
-        <v>43909</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="67">
-        <v>43910</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="67">
-        <v>43913</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="67">
-        <v>43914</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="67">
-        <v>43915</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
-        <v>43916</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="67">
-        <v>43917</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="67">
-        <v>43920</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="67">
-        <v>43921</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="67">
-        <v>43922</v>
+        <v>43924</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="67">
-        <v>43923</v>
+        <v>43927</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="67">
-        <v>43924</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="67">
-        <v>43927</v>
+        <v>43929</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="67">
-        <v>43928</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="67">
-        <v>43929</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="67">
-        <v>43930</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="67">
-        <v>43934</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="67">
-        <v>43935</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="67">
-        <v>43936</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="67">
-        <v>43937</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="67">
-        <v>43938</v>
+        <v>43944</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="67">
-        <v>43943</v>
+        <v>43945</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="67">
-        <v>43944</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="67">
-        <v>43945</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="67">
-        <v>43948</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="67">
-        <v>43949</v>
+        <v>43951</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="67">
-        <v>43950</v>
+        <v>43955</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="67">
-        <v>43951</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="67">
-        <v>43955</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="67">
-        <v>43956</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="67">
-        <v>43957</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="67">
-        <v>43958</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="67">
-        <v>43959</v>
+        <v>43963</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="67">
-        <v>43962</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="67">
-        <v>43963</v>
+        <v>43965</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="67">
-        <v>43964</v>
+        <v>43966</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="67">
-        <v>43965</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="67">
-        <v>43966</v>
+        <v>43970</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="67">
-        <v>43969</v>
+        <v>43971</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="67">
-        <v>43970</v>
+        <v>43972</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="67">
-        <v>43971</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="67">
-        <v>43972</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="67">
-        <v>43973</v>
+        <v>43977</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="67">
-        <v>43976</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="67">
-        <v>43977</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="67">
-        <v>43978</v>
+        <v>43980</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="67">
-        <v>43979</v>
+        <v>43983</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="67">
-        <v>43980</v>
+        <v>43984</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="67">
-        <v>43983</v>
+        <v>43985</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="67">
-        <v>43984</v>
+        <v>43986</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="67">
-        <v>43985</v>
+        <v>43987</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="67">
-        <v>43986</v>
+        <v>43990</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="67">
-        <v>43987</v>
+        <v>43991</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="67">
-        <v>43990</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="67">
-        <v>43991</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="67">
-        <v>43992</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="67">
-        <v>43993</v>
+        <v>43999</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="67">
-        <v>43994</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="67">
-        <v>43997</v>
+        <v>44001</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="67">
-        <v>43998</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="67">
-        <v>43999</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67">
-        <v>44000</v>
-      </c>
+      <c r="A101" s="67"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
-        <v>44001</v>
-      </c>
+      <c r="A102" s="67"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="67"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="67"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="67"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="67"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="67"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="67"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="67"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="67"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="67"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="67"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="67"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="67"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="67"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="67"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="67"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="67"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="67"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="67"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="67"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="67"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="67"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="67"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="67"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="67"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="67"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="67"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="67"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="67"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="67"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="67"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="67"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="67"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="67"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="67"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="67"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="67"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="67"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="67"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="67"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="67"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="67"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2548,9 +2083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,423 +2097,423 @@
   <sheetData>
     <row r="1" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125"/>
-      <c r="AL1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="125"/>
-      <c r="AV1" s="125"/>
-      <c r="AW1" s="125"/>
-      <c r="AX1" s="125"/>
-      <c r="AY1" s="125"/>
-      <c r="AZ1" s="125"/>
-      <c r="BA1" s="125"/>
-      <c r="BB1" s="125"/>
-      <c r="BC1" s="125"/>
-      <c r="BD1" s="125"/>
-      <c r="BE1" s="125"/>
-      <c r="BF1" s="125"/>
-      <c r="BG1" s="125"/>
-      <c r="BH1" s="125"/>
-      <c r="BI1" s="125"/>
-      <c r="BJ1" s="125"/>
-      <c r="BK1" s="125"/>
-      <c r="BL1" s="125"/>
-      <c r="BM1" s="125"/>
-      <c r="BN1" s="125"/>
-      <c r="BO1" s="125"/>
-      <c r="BP1" s="125"/>
-      <c r="BQ1" s="125"/>
-      <c r="BR1" s="125"/>
-      <c r="BS1" s="125"/>
-      <c r="BT1" s="125"/>
-      <c r="BU1" s="125"/>
-      <c r="BV1" s="125"/>
-      <c r="BW1" s="125"/>
-      <c r="BX1" s="125"/>
-      <c r="BY1" s="125"/>
-      <c r="BZ1" s="125"/>
-      <c r="CA1" s="125"/>
-      <c r="CB1" s="125"/>
-      <c r="CC1" s="125"/>
-      <c r="CD1" s="125"/>
-      <c r="CE1" s="125"/>
-      <c r="CF1" s="125"/>
-      <c r="CG1" s="125"/>
-      <c r="CH1" s="125"/>
-      <c r="CI1" s="125"/>
-      <c r="CJ1" s="125"/>
-      <c r="CK1" s="125"/>
-      <c r="CL1" s="125"/>
-      <c r="CM1" s="125"/>
-      <c r="CN1" s="125"/>
-      <c r="CO1" s="125"/>
-      <c r="CP1" s="125"/>
-      <c r="CQ1" s="125"/>
-      <c r="CR1" s="125"/>
-      <c r="CS1" s="125"/>
-      <c r="CT1" s="125"/>
-      <c r="CU1" s="125"/>
-      <c r="CV1" s="125"/>
-      <c r="CW1" s="125"/>
-    </row>
-    <row r="2" spans="1:103" s="130" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69"/>
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CB1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="69"/>
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69"/>
+      <c r="CJ1" s="69"/>
+      <c r="CK1" s="69"/>
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69"/>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="69"/>
+      <c r="CR1" s="69"/>
+      <c r="CS1" s="69"/>
+      <c r="CT1" s="69"/>
+      <c r="CU1" s="69"/>
+      <c r="CV1" s="69"/>
+      <c r="CW1" s="69"/>
+    </row>
+    <row r="2" spans="1:103" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="128">
-        <v>43851</v>
-      </c>
-      <c r="C2" s="129">
-        <v>43852</v>
-      </c>
-      <c r="D2" s="129">
+      <c r="B2" s="67">
         <v>43853</v>
       </c>
-      <c r="E2" s="129">
+      <c r="C2" s="67">
         <v>43854</v>
       </c>
-      <c r="F2" s="129">
+      <c r="D2" s="67">
         <v>43857</v>
       </c>
-      <c r="G2" s="129">
+      <c r="E2" s="67">
         <v>43858</v>
       </c>
-      <c r="H2" s="129">
+      <c r="F2" s="67">
         <v>43859</v>
       </c>
-      <c r="I2" s="129">
+      <c r="G2" s="67">
         <v>43860</v>
       </c>
-      <c r="J2" s="129">
+      <c r="H2" s="67">
         <v>43861</v>
       </c>
-      <c r="K2" s="129">
+      <c r="I2" s="67">
         <v>43864</v>
       </c>
-      <c r="L2" s="129">
+      <c r="J2" s="67">
         <v>43865</v>
       </c>
-      <c r="M2" s="129">
+      <c r="K2" s="67">
         <v>43866</v>
       </c>
-      <c r="N2" s="129">
+      <c r="L2" s="67">
         <v>43867</v>
       </c>
-      <c r="O2" s="129">
+      <c r="M2" s="67">
         <v>43868</v>
       </c>
-      <c r="P2" s="129">
+      <c r="N2" s="67">
         <v>43871</v>
       </c>
-      <c r="Q2" s="129">
+      <c r="O2" s="67">
         <v>43872</v>
       </c>
-      <c r="R2" s="129">
+      <c r="P2" s="67">
         <v>43873</v>
       </c>
-      <c r="S2" s="129">
+      <c r="Q2" s="67">
         <v>43874</v>
       </c>
-      <c r="T2" s="129">
+      <c r="R2" s="67">
         <v>43875</v>
       </c>
-      <c r="U2" s="129">
+      <c r="S2" s="67">
         <v>43878</v>
       </c>
-      <c r="V2" s="129">
+      <c r="T2" s="67">
         <v>43879</v>
       </c>
-      <c r="W2" s="129">
+      <c r="U2" s="67">
         <v>43880</v>
       </c>
-      <c r="X2" s="129">
+      <c r="V2" s="67">
         <v>43881</v>
       </c>
-      <c r="Y2" s="129">
+      <c r="W2" s="67">
         <v>43882</v>
       </c>
-      <c r="Z2" s="129">
+      <c r="X2" s="67">
         <v>43888</v>
       </c>
-      <c r="AA2" s="129">
+      <c r="Y2" s="67">
         <v>43889</v>
       </c>
-      <c r="AB2" s="129">
+      <c r="Z2" s="67">
         <v>43892</v>
       </c>
-      <c r="AC2" s="129">
+      <c r="AA2" s="67">
         <v>43893</v>
       </c>
-      <c r="AD2" s="129">
+      <c r="AB2" s="67">
         <v>43894</v>
       </c>
-      <c r="AE2" s="129">
+      <c r="AC2" s="67">
         <v>43895</v>
       </c>
-      <c r="AF2" s="129">
+      <c r="AD2" s="67">
         <v>43896</v>
       </c>
-      <c r="AG2" s="129">
+      <c r="AE2" s="67">
         <v>43899</v>
       </c>
-      <c r="AH2" s="129">
+      <c r="AF2" s="67">
         <v>43900</v>
       </c>
-      <c r="AI2" s="129">
+      <c r="AG2" s="67">
         <v>43901</v>
       </c>
-      <c r="AJ2" s="129">
+      <c r="AH2" s="67">
         <v>43902</v>
       </c>
-      <c r="AK2" s="129">
+      <c r="AI2" s="67">
         <v>43903</v>
       </c>
-      <c r="AL2" s="129">
+      <c r="AJ2" s="67">
         <v>43906</v>
       </c>
-      <c r="AM2" s="129">
+      <c r="AK2" s="67">
         <v>43907</v>
       </c>
-      <c r="AN2" s="129">
+      <c r="AL2" s="67">
         <v>43908</v>
       </c>
-      <c r="AO2" s="129">
+      <c r="AM2" s="67">
         <v>43909</v>
       </c>
-      <c r="AP2" s="129">
+      <c r="AN2" s="67">
         <v>43910</v>
       </c>
-      <c r="AQ2" s="129">
+      <c r="AO2" s="67">
         <v>43913</v>
       </c>
-      <c r="AR2" s="129">
+      <c r="AP2" s="67">
         <v>43914</v>
       </c>
-      <c r="AS2" s="129">
+      <c r="AQ2" s="67">
         <v>43915</v>
       </c>
-      <c r="AT2" s="129">
+      <c r="AR2" s="67">
         <v>43916</v>
       </c>
-      <c r="AU2" s="129">
+      <c r="AS2" s="67">
         <v>43917</v>
       </c>
-      <c r="AV2" s="129">
+      <c r="AT2" s="67">
         <v>43920</v>
       </c>
-      <c r="AW2" s="129">
+      <c r="AU2" s="67">
         <v>43921</v>
       </c>
-      <c r="AX2" s="129">
+      <c r="AV2" s="67">
         <v>43922</v>
       </c>
-      <c r="AY2" s="129">
+      <c r="AW2" s="67">
         <v>43923</v>
       </c>
-      <c r="AZ2" s="129">
+      <c r="AX2" s="67">
         <v>43924</v>
       </c>
-      <c r="BA2" s="129">
+      <c r="AY2" s="67">
         <v>43927</v>
       </c>
-      <c r="BB2" s="129">
+      <c r="AZ2" s="67">
         <v>43928</v>
       </c>
-      <c r="BC2" s="129">
+      <c r="BA2" s="67">
         <v>43929</v>
       </c>
-      <c r="BD2" s="129">
+      <c r="BB2" s="67">
         <v>43930</v>
       </c>
-      <c r="BE2" s="129">
+      <c r="BC2" s="67">
         <v>43934</v>
       </c>
-      <c r="BF2" s="129">
+      <c r="BD2" s="67">
         <v>43935</v>
       </c>
-      <c r="BG2" s="129">
+      <c r="BE2" s="67">
         <v>43936</v>
       </c>
-      <c r="BH2" s="129">
+      <c r="BF2" s="67">
         <v>43937</v>
       </c>
-      <c r="BI2" s="129">
+      <c r="BG2" s="67">
         <v>43938</v>
       </c>
-      <c r="BJ2" s="129">
+      <c r="BH2" s="67">
         <v>43943</v>
       </c>
-      <c r="BK2" s="129">
+      <c r="BI2" s="67">
         <v>43944</v>
       </c>
-      <c r="BL2" s="129">
+      <c r="BJ2" s="67">
         <v>43945</v>
       </c>
-      <c r="BM2" s="129">
+      <c r="BK2" s="67">
         <v>43948</v>
       </c>
-      <c r="BN2" s="129">
+      <c r="BL2" s="67">
         <v>43949</v>
       </c>
-      <c r="BO2" s="129">
+      <c r="BM2" s="67">
         <v>43950</v>
       </c>
-      <c r="BP2" s="129">
+      <c r="BN2" s="67">
         <v>43951</v>
       </c>
-      <c r="BQ2" s="129">
+      <c r="BO2" s="67">
         <v>43955</v>
       </c>
-      <c r="BR2" s="129">
+      <c r="BP2" s="67">
         <v>43956</v>
       </c>
-      <c r="BS2" s="129">
+      <c r="BQ2" s="67">
         <v>43957</v>
       </c>
-      <c r="BT2" s="129">
+      <c r="BR2" s="67">
         <v>43958</v>
       </c>
-      <c r="BU2" s="129">
+      <c r="BS2" s="67">
         <v>43959</v>
       </c>
-      <c r="BV2" s="129">
+      <c r="BT2" s="67">
         <v>43962</v>
       </c>
-      <c r="BW2" s="129">
+      <c r="BU2" s="67">
         <v>43963</v>
       </c>
-      <c r="BX2" s="129">
+      <c r="BV2" s="67">
         <v>43964</v>
       </c>
-      <c r="BY2" s="129">
+      <c r="BW2" s="67">
         <v>43965</v>
       </c>
-      <c r="BZ2" s="129">
+      <c r="BX2" s="67">
         <v>43966</v>
       </c>
-      <c r="CA2" s="129">
+      <c r="BY2" s="67">
         <v>43969</v>
       </c>
-      <c r="CB2" s="129">
+      <c r="BZ2" s="67">
         <v>43970</v>
       </c>
-      <c r="CC2" s="129">
+      <c r="CA2" s="67">
         <v>43971</v>
       </c>
-      <c r="CD2" s="129">
+      <c r="CB2" s="67">
         <v>43972</v>
       </c>
-      <c r="CE2" s="129">
+      <c r="CC2" s="67">
         <v>43973</v>
       </c>
-      <c r="CF2" s="129">
+      <c r="CD2" s="67">
         <v>43976</v>
       </c>
-      <c r="CG2" s="129">
+      <c r="CE2" s="67">
         <v>43977</v>
       </c>
-      <c r="CH2" s="129">
+      <c r="CF2" s="67">
         <v>43978</v>
       </c>
-      <c r="CI2" s="129">
+      <c r="CG2" s="67">
         <v>43979</v>
       </c>
-      <c r="CJ2" s="129">
+      <c r="CH2" s="67">
         <v>43980</v>
       </c>
-      <c r="CK2" s="129">
+      <c r="CI2" s="67">
         <v>43983</v>
       </c>
-      <c r="CL2" s="129">
+      <c r="CJ2" s="67">
         <v>43984</v>
       </c>
-      <c r="CM2" s="129">
+      <c r="CK2" s="67">
         <v>43985</v>
       </c>
-      <c r="CN2" s="129">
+      <c r="CL2" s="67">
         <v>43986</v>
       </c>
-      <c r="CO2" s="129">
+      <c r="CM2" s="67">
         <v>43987</v>
       </c>
-      <c r="CP2" s="129">
+      <c r="CN2" s="67">
         <v>43990</v>
       </c>
-      <c r="CQ2" s="129">
+      <c r="CO2" s="67">
         <v>43991</v>
       </c>
-      <c r="CR2" s="129">
+      <c r="CP2" s="67">
         <v>43992</v>
       </c>
-      <c r="CS2" s="129">
-        <v>43993</v>
-      </c>
-      <c r="CT2" s="129">
-        <v>43994</v>
-      </c>
-      <c r="CU2" s="129">
+      <c r="CQ2" s="67">
         <v>43997</v>
       </c>
-      <c r="CV2" s="129">
+      <c r="CR2" s="67">
         <v>43998</v>
       </c>
-      <c r="CW2" s="129">
+      <c r="CS2" s="67">
         <v>43999</v>
       </c>
-      <c r="CX2" s="129">
+      <c r="CT2" s="67">
         <v>44000</v>
       </c>
-      <c r="CY2" s="129">
+      <c r="CU2" s="67">
+        <v>44001</v>
+      </c>
+      <c r="CV2" s="67">
+        <v>44004</v>
+      </c>
+      <c r="CW2" s="67">
+        <v>44005</v>
+      </c>
+      <c r="CX2" s="72">
+        <v>44000</v>
+      </c>
+      <c r="CY2" s="72">
         <v>44001</v>
       </c>
     </row>
@@ -3392,7 +2927,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="66"/>
-      <c r="CW54" s="131"/>
+      <c r="CW54" s="74"/>
     </row>
     <row r="55" spans="1:101" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55"/>
@@ -3406,1059 +2941,1296 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:CV150"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="104"/>
-    <col min="2" max="2" width="5.85546875" style="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="104" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="104" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" style="104" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="104" customWidth="1"/>
-    <col min="9" max="16384" width="5.5703125" style="104"/>
+    <col min="1" max="1" width="9.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="27.5703125" style="75" customWidth="1"/>
+    <col min="7" max="16384" width="8.42578125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="70" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69" t="s">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="106"/>
-    </row>
-    <row r="2" spans="1:16" s="74" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="72">
-        <v>43670</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119"/>
-      <c r="B3" s="75">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="79" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
-      <c r="B4" s="77">
-        <v>43672</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="80"/>
-    </row>
-    <row r="5" spans="1:16" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="81">
-        <v>43675</v>
-      </c>
-      <c r="C5" s="82" t="s">
+      <c r="B3" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="119"/>
-      <c r="B6" s="81">
-        <v>43676</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="83" t="s">
+      <c r="F3" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="81">
-        <v>43677</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="75">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="81">
-        <v>43679</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="105"/>
-    </row>
-    <row r="10" spans="1:16" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="77">
-        <v>43682</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
-      <c r="B11" s="77">
-        <v>43683</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="77">
-        <v>43684</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="75">
-        <v>43685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="77">
-        <v>43686</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="81">
-        <v>43689</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="81">
-        <v>43690</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="81">
-        <v>43691</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="75">
-        <v>43692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120"/>
-      <c r="B19" s="84">
-        <v>43693</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="74" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="86">
-        <v>43696</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="88">
-        <v>43697</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="88">
-        <v>43698</v>
-      </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="76" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="91">
-        <v>43699</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="88">
-        <v>43700</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="92">
-        <v>43703</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="83" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="92">
-        <v>43704</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="92">
-        <v>43705</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="91">
-        <v>43706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="92">
-        <v>43707</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="88">
-        <v>43710</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="88">
-        <v>43711</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="88">
-        <v>43712</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="91">
-        <v>43713</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="88">
-        <v>43714</v>
-      </c>
-      <c r="E34" s="79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="92">
-        <v>43717</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
-      <c r="B36" s="92">
-        <v>43718</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="92">
-        <v>43719</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="91">
-        <v>43720</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="92">
-        <v>43721</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="88">
-        <v>43724</v>
-      </c>
-      <c r="C40" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="88">
-        <v>43725</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
-      <c r="B42" s="88">
-        <v>43726</v>
-      </c>
-      <c r="C42" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="113">
-        <v>43727</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="102" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="114">
-        <v>43728</v>
-      </c>
-      <c r="C44" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
-      <c r="B45" s="110">
-        <v>43731</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
-      <c r="B46" s="96">
-        <v>43732</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
-      <c r="B47" s="96">
-        <v>43733</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="97">
-        <v>43734</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="83" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="96">
-        <v>43735</v>
-      </c>
-      <c r="C49" s="82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="79" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="122"/>
-      <c r="B50" s="98">
-        <v>43738</v>
-      </c>
-      <c r="C50" s="78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="122"/>
-      <c r="B51" s="98">
-        <v>43739</v>
-      </c>
-      <c r="C51" s="78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
-      <c r="B52" s="98">
-        <v>43740</v>
-      </c>
-      <c r="C52" s="79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
-      <c r="B53" s="97">
-        <v>43741</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
-      <c r="B54" s="98">
-        <v>43742</v>
-      </c>
-      <c r="C54" s="78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
-      <c r="B55" s="96">
-        <v>43745</v>
-      </c>
-      <c r="C55" s="83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
-      <c r="B56" s="96">
-        <v>43746</v>
-      </c>
-      <c r="C56" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
-      <c r="B57" s="96">
-        <v>43747</v>
-      </c>
-      <c r="C57" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
-      <c r="B58" s="97">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
-      <c r="B59" s="96">
-        <v>43749</v>
-      </c>
-      <c r="C59" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="98">
-        <v>43754</v>
-      </c>
-      <c r="C60" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
-      <c r="B61" s="97">
-        <v>43755</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="98">
-        <v>43756</v>
-      </c>
-      <c r="C62" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
-      <c r="B63" s="96">
-        <v>43759</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="96">
-        <v>43760</v>
-      </c>
-      <c r="C64" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="B65" s="96">
-        <v>43761</v>
-      </c>
-      <c r="C65" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="123"/>
-      <c r="B66" s="99">
-        <v>43762</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="95" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="93">
-        <v>43763</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
-      <c r="B68" s="98">
-        <v>43766</v>
-      </c>
-      <c r="C68" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
-      <c r="B69" s="98">
-        <v>43767</v>
-      </c>
-      <c r="C69" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
-      <c r="B70" s="98">
-        <v>43768</v>
-      </c>
-      <c r="C70" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
-      <c r="B71" s="97">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
-      <c r="B72" s="98">
-        <v>43770</v>
-      </c>
-      <c r="C72" s="79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="96">
-        <v>43773</v>
-      </c>
-      <c r="C73" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
-      <c r="B74" s="96">
-        <v>43774</v>
-      </c>
-      <c r="C74" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
-      <c r="B75" s="96">
-        <v>43775</v>
-      </c>
-      <c r="C75" s="83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
-      <c r="B76" s="97">
-        <v>43776</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="122"/>
-      <c r="B77" s="96">
-        <v>43777</v>
-      </c>
-      <c r="C77" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
-      <c r="B78" s="98">
-        <v>43780</v>
-      </c>
-      <c r="C78" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="122"/>
-      <c r="B79" s="98">
-        <v>43781</v>
-      </c>
-      <c r="C79" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
-      <c r="B80" s="98">
-        <v>43782</v>
-      </c>
-      <c r="C80" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="122"/>
-      <c r="B81" s="97">
-        <v>43783</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
-      <c r="B82" s="96">
-        <v>43787</v>
-      </c>
-      <c r="C82" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="122"/>
-      <c r="B83" s="96">
-        <v>43788</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
-      <c r="B84" s="97">
-        <v>43790</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="122"/>
-      <c r="B85" s="96">
-        <v>43791</v>
-      </c>
-      <c r="C85" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="122"/>
-      <c r="B86" s="98">
-        <v>43794</v>
-      </c>
-      <c r="C86" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
-      <c r="B87" s="98">
-        <v>43795</v>
-      </c>
-      <c r="C87" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="122"/>
-      <c r="B88" s="98">
-        <v>43796</v>
-      </c>
-      <c r="C88" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="123"/>
-      <c r="B89" s="99">
-        <v>43797</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="101">
-        <v>43798</v>
-      </c>
-      <c r="C90" s="73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="116"/>
-      <c r="B91" s="96">
-        <v>43801</v>
-      </c>
-      <c r="C91" s="83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="116"/>
-      <c r="B92" s="96">
-        <v>43802</v>
-      </c>
-      <c r="C92" s="83" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="116"/>
-      <c r="B93" s="96">
-        <v>43803</v>
-      </c>
-      <c r="C93" s="83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="116"/>
-      <c r="B94" s="97">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="116"/>
-      <c r="B95" s="96">
-        <v>43805</v>
-      </c>
-      <c r="C95" s="83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="116"/>
-      <c r="B96" s="98">
-        <v>43808</v>
-      </c>
-      <c r="C96" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="116"/>
-      <c r="B97" s="98">
-        <v>43809</v>
-      </c>
-      <c r="C97" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="116"/>
-      <c r="B98" s="98">
-        <v>43810</v>
-      </c>
-      <c r="C98" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117"/>
-      <c r="B99" s="99">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="103">
-        <v>43812</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="92">
-        <v>43815</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="92">
-        <v>43816</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="92">
-        <v>43817</v>
-      </c>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A4" s="86">
+        <v>43853</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
+      <c r="BP4" s="76"/>
+      <c r="BQ4" s="76"/>
+      <c r="BR4" s="76"/>
+      <c r="BS4" s="76"/>
+      <c r="BT4" s="76"/>
+      <c r="BU4" s="76"/>
+      <c r="BV4" s="76"/>
+      <c r="BW4" s="76"/>
+      <c r="BX4" s="76"/>
+      <c r="BY4" s="76"/>
+      <c r="BZ4" s="76"/>
+      <c r="CA4" s="76"/>
+      <c r="CB4" s="76"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="76"/>
+      <c r="CF4" s="76"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="76"/>
+      <c r="CI4" s="76"/>
+      <c r="CJ4" s="76"/>
+      <c r="CK4" s="76"/>
+      <c r="CL4" s="76"/>
+      <c r="CM4" s="76"/>
+      <c r="CN4" s="76"/>
+      <c r="CO4" s="76"/>
+      <c r="CP4" s="76"/>
+      <c r="CQ4" s="76"/>
+      <c r="CR4" s="76"/>
+      <c r="CS4" s="76"/>
+      <c r="CT4" s="76"/>
+      <c r="CU4" s="76"/>
+      <c r="CV4" s="76"/>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
+        <v>43854</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A6" s="86">
+        <v>43857</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>43858</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A8" s="86">
+        <v>43859</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A9" s="86">
+        <v>43860</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A10" s="86">
+        <v>43861</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A11" s="86">
+        <v>43864</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A12" s="86">
+        <v>43865</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A14" s="86">
+        <v>43867</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A15" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
+        <v>43871</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
+        <v>43872</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>43873</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
+        <v>43878</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="86">
+        <v>43879</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
+        <v>43880</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
+        <v>43881</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>43888</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="86">
+        <v>43889</v>
+      </c>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="86">
+        <v>43892</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="86">
+        <v>43894</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>43895</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="86">
+        <v>43896</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="86">
+        <v>43899</v>
+      </c>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="86">
+        <v>43900</v>
+      </c>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="86">
+        <v>43901</v>
+      </c>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
+        <v>43902</v>
+      </c>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
+        <v>43903</v>
+      </c>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
+        <v>43906</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
+        <v>43907</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="86">
+        <v>43908</v>
+      </c>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="86">
+        <v>43909</v>
+      </c>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="86">
+        <v>43910</v>
+      </c>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="86">
+        <v>43913</v>
+      </c>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="86">
+        <v>43914</v>
+      </c>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="86">
+        <v>43915</v>
+      </c>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
+        <v>43916</v>
+      </c>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="86">
+        <v>43917</v>
+      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="86">
+        <v>43920</v>
+      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="86">
+        <v>43921</v>
+      </c>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="86">
+        <v>43922</v>
+      </c>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="86">
+        <v>43923</v>
+      </c>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="86">
+        <v>43924</v>
+      </c>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="86">
+        <v>43927</v>
+      </c>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="86">
+        <v>43928</v>
+      </c>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="86">
+        <v>43929</v>
+      </c>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="86">
+        <v>43930</v>
+      </c>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="86">
+        <v>43934</v>
+      </c>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="86">
+        <v>43935</v>
+      </c>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="86">
+        <v>43936</v>
+      </c>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="86">
+        <v>43937</v>
+      </c>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="86">
+        <v>43938</v>
+      </c>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="86">
+        <v>43943</v>
+      </c>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="86">
+        <v>43944</v>
+      </c>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="86">
+        <v>43945</v>
+      </c>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="86">
+        <v>43948</v>
+      </c>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="86">
+        <v>43949</v>
+      </c>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="86">
+        <v>43950</v>
+      </c>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="86">
+        <v>43951</v>
+      </c>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="86">
+        <v>43955</v>
+      </c>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="86">
+        <v>43956</v>
+      </c>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="84"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="86">
+        <v>43957</v>
+      </c>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="86">
+        <v>43958</v>
+      </c>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="86">
+        <v>43959</v>
+      </c>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="84"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="86">
+        <v>43962</v>
+      </c>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="86">
+        <v>43963</v>
+      </c>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="86">
+        <v>43964</v>
+      </c>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="86">
+        <v>43965</v>
+      </c>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="86">
+        <v>43966</v>
+      </c>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="86">
+        <v>43969</v>
+      </c>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="86">
+        <v>43970</v>
+      </c>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="86">
+        <v>43971</v>
+      </c>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="86">
+        <v>43972</v>
+      </c>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="86">
+        <v>43973</v>
+      </c>
+      <c r="B83" s="84"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="86">
+        <v>43976</v>
+      </c>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="86">
+        <v>43977</v>
+      </c>
+      <c r="B85" s="84"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="86">
+        <v>43978</v>
+      </c>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="86">
+        <v>43979</v>
+      </c>
+      <c r="B87" s="84"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="86">
+        <v>43980</v>
+      </c>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="86">
+        <v>43983</v>
+      </c>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="86">
+        <v>43984</v>
+      </c>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="86">
+        <v>43985</v>
+      </c>
+      <c r="B91" s="84"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="86">
+        <v>43986</v>
+      </c>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="84"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="86">
+        <v>43987</v>
+      </c>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="86">
+        <v>43990</v>
+      </c>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="86">
+        <v>43991</v>
+      </c>
+      <c r="B95" s="84"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="86">
+        <v>43992</v>
+      </c>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="84"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="86">
+        <v>43997</v>
+      </c>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="86">
+        <v>43998</v>
+      </c>
+      <c r="B98" s="84"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="86">
+        <v>43999</v>
+      </c>
+      <c r="B99" s="84"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="86">
+        <v>44000</v>
+      </c>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="86">
+        <v>44001</v>
+      </c>
+      <c r="B101" s="84"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="84"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="84"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="86">
+        <v>44004</v>
+      </c>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="86">
+        <v>44005</v>
+      </c>
+      <c r="B103" s="84"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="78"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="78"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="78"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="78"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="78"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="78"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="78"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="78"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="78"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="78"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="78"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="78"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="78"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="78"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="78"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="78"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="78"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="78"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="78"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="78"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="78"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="78"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="78"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="78"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="78"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="78"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="78"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="78"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="78"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="78"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="78"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="78"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="78"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="78"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="78"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="78"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="78"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="78"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="78"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="78"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="78"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="78"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="78"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="78"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="78"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A67:A89"/>
-    <mergeCell ref="A20:A43"/>
-    <mergeCell ref="A44:A66"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentos/cronograma.xlsx
+++ b/documentos/cronograma.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -640,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -789,6 +795,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,9 +2093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,19 +2636,22 @@
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="89"/>
     </row>
     <row r="5" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="89"/>
     </row>
     <row r="6" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="16"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -2943,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV150"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3011,7 @@
       <c r="A4" s="86">
         <v>43853</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
       <c r="E4" s="85"/>

--- a/documentos/cronograma.xlsx
+++ b/documentos/cronograma.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -231,6 +231,30 @@
   </si>
   <si>
     <t>BD - NoSQL</t>
+  </si>
+  <si>
+    <t>ADO.NET</t>
+  </si>
+  <si>
+    <t>EFCore</t>
+  </si>
+  <si>
+    <t>Transversal</t>
+  </si>
+  <si>
+    <t>EFCore, JWT</t>
+  </si>
+  <si>
+    <t>Max - 15</t>
+  </si>
+  <si>
+    <t>Max - 20</t>
+  </si>
+  <si>
+    <t>Max - 10</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -240,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +309,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +414,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -642,11 +697,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,7 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -743,13 +1013,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -800,6 +1063,84 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,7 +1462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1344,744 +1687,744 @@
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A1" s="67">
+      <c r="A1" s="66">
         <v>43853</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="67"/>
-      <c r="CT1" s="67"/>
-      <c r="CU1" s="67"/>
-      <c r="CV1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="66"/>
+      <c r="BS1" s="66"/>
+      <c r="BT1" s="66"/>
+      <c r="BU1" s="66"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
+      <c r="CB1" s="66"/>
+      <c r="CC1" s="66"/>
+      <c r="CD1" s="66"/>
+      <c r="CE1" s="66"/>
+      <c r="CF1" s="66"/>
+      <c r="CG1" s="66"/>
+      <c r="CH1" s="66"/>
+      <c r="CI1" s="66"/>
+      <c r="CJ1" s="66"/>
+      <c r="CK1" s="66"/>
+      <c r="CL1" s="66"/>
+      <c r="CM1" s="66"/>
+      <c r="CN1" s="66"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="66"/>
+      <c r="CQ1" s="66"/>
+      <c r="CR1" s="66"/>
+      <c r="CS1" s="66"/>
+      <c r="CT1" s="66"/>
+      <c r="CU1" s="66"/>
+      <c r="CV1" s="66"/>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+      <c r="A2" s="66">
         <v>43854</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
+      <c r="A3" s="66">
         <v>43857</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
+      <c r="A4" s="66">
         <v>43858</v>
       </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <v>43859</v>
       </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>43860</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>43861</v>
       </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+      <c r="A8" s="66">
         <v>43864</v>
       </c>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="66">
         <v>43865</v>
       </c>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+      <c r="A10" s="66">
         <v>43866</v>
       </c>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+      <c r="A11" s="66">
         <v>43867</v>
       </c>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="66">
         <v>43868</v>
       </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <v>43871</v>
       </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+      <c r="A14" s="66">
         <v>43872</v>
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+      <c r="A15" s="66">
         <v>43873</v>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <v>43874</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+      <c r="A17" s="66">
         <v>43875</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+      <c r="A18" s="66">
         <v>43878</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <v>43879</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+      <c r="A20" s="66">
         <v>43880</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+      <c r="A21" s="66">
         <v>43881</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <v>43882</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="66">
         <v>43888</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+      <c r="A24" s="66">
         <v>43889</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <v>43892</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+      <c r="A26" s="66">
         <v>43893</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+      <c r="A27" s="66">
         <v>43894</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+      <c r="A28" s="66">
         <v>43895</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+      <c r="A29" s="66">
         <v>43896</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
+      <c r="A30" s="66">
         <v>43899</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+      <c r="A31" s="66">
         <v>43900</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+      <c r="A32" s="66">
         <v>43901</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+      <c r="A33" s="66">
         <v>43902</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+      <c r="A34" s="66">
         <v>43903</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+      <c r="A35" s="66">
         <v>43906</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+      <c r="A36" s="66">
         <v>43907</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+      <c r="A37" s="66">
         <v>43908</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+      <c r="A38" s="66">
         <v>43909</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+      <c r="A39" s="66">
         <v>43910</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+      <c r="A40" s="66">
         <v>43913</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+      <c r="A41" s="66">
         <v>43914</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+      <c r="A42" s="66">
         <v>43915</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67">
+      <c r="A43" s="66">
         <v>43916</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67">
+      <c r="A44" s="66">
         <v>43917</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67">
+      <c r="A45" s="66">
         <v>43920</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67">
+      <c r="A46" s="66">
         <v>43921</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67">
+      <c r="A47" s="66">
         <v>43922</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67">
+      <c r="A48" s="66">
         <v>43923</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67">
+      <c r="A49" s="66">
         <v>43924</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67">
+      <c r="A50" s="66">
         <v>43927</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67">
+      <c r="A51" s="66">
         <v>43928</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
+      <c r="A52" s="66">
         <v>43929</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67">
+      <c r="A53" s="66">
         <v>43930</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67">
+      <c r="A54" s="66">
         <v>43934</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67">
+      <c r="A55" s="66">
         <v>43935</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="67">
+      <c r="A56" s="66">
         <v>43936</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67">
+      <c r="A57" s="66">
         <v>43937</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
+      <c r="A58" s="66">
         <v>43938</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="67">
+      <c r="A59" s="66">
         <v>43943</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="67">
+      <c r="A60" s="66">
         <v>43944</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67">
+      <c r="A61" s="66">
         <v>43945</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
+      <c r="A62" s="66">
         <v>43948</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67">
+      <c r="A63" s="66">
         <v>43949</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67">
+      <c r="A64" s="66">
         <v>43950</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67">
+      <c r="A65" s="66">
         <v>43951</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67">
+      <c r="A66" s="66">
         <v>43955</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67">
+      <c r="A67" s="66">
         <v>43956</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="67">
+      <c r="A68" s="66">
         <v>43957</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="67">
+      <c r="A69" s="66">
         <v>43958</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="67">
+      <c r="A70" s="66">
         <v>43959</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67">
+      <c r="A71" s="66">
         <v>43962</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
+      <c r="A72" s="66">
         <v>43963</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="67">
+      <c r="A73" s="66">
         <v>43964</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67">
+      <c r="A74" s="66">
         <v>43965</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="67">
+      <c r="A75" s="66">
         <v>43966</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="67">
+      <c r="A76" s="66">
         <v>43969</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="67">
+      <c r="A77" s="66">
         <v>43970</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="67">
+      <c r="A78" s="66">
         <v>43971</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="67">
+      <c r="A79" s="66">
         <v>43972</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="67">
+      <c r="A80" s="66">
         <v>43973</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67">
+      <c r="A81" s="66">
         <v>43976</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
+      <c r="A82" s="66">
         <v>43977</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="67">
+      <c r="A83" s="66">
         <v>43978</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67">
+      <c r="A84" s="66">
         <v>43979</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67">
+      <c r="A85" s="66">
         <v>43980</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67">
+      <c r="A86" s="66">
         <v>43983</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="67">
+      <c r="A87" s="66">
         <v>43984</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67">
+      <c r="A88" s="66">
         <v>43985</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="67">
+      <c r="A89" s="66">
         <v>43986</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="67">
+      <c r="A90" s="66">
         <v>43987</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="67">
+      <c r="A91" s="66">
         <v>43990</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
+      <c r="A92" s="66">
         <v>43991</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="67">
+      <c r="A93" s="66">
         <v>43992</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="67">
+      <c r="A94" s="66">
         <v>43997</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="67">
+      <c r="A95" s="66">
         <v>43998</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="67">
+      <c r="A96" s="66">
         <v>43999</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="67">
+      <c r="A97" s="66">
         <v>44000</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="67">
+      <c r="A98" s="66">
         <v>44001</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="67">
+      <c r="A99" s="66">
         <v>44004</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="67">
+      <c r="A100" s="66">
         <v>44005</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="66"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="66"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="66"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
+      <c r="A104" s="66"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="66"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="66"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
+      <c r="A107" s="66"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
+      <c r="A108" s="66"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="66"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="66"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="66"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="66"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
+      <c r="A113" s="66"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
+      <c r="A114" s="66"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="66"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="66"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
+      <c r="A117" s="66"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
+      <c r="A118" s="66"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="66"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="66"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="66"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="66"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
+      <c r="A123" s="66"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
+      <c r="A124" s="66"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="66"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="66"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
+      <c r="A127" s="66"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
+      <c r="A128" s="66"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="66"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
+      <c r="A130" s="66"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="66"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="66"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
+      <c r="A133" s="66"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
+      <c r="A134" s="66"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="66"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="66"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
+      <c r="A137" s="66"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
+      <c r="A138" s="66"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="66"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="66"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="66"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="66"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
+      <c r="A143" s="66"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
+      <c r="A144" s="66"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="66"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
+      <c r="A146" s="66"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
+      <c r="A147" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2091,455 +2434,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY55"/>
+  <dimension ref="A1:CZ55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="BQ53" sqref="BQ53:BU53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="21"/>
-    <col min="3" max="16384" width="8.28515625" style="10"/>
+    <col min="2" max="2" width="8.28515625" style="145"/>
+    <col min="3" max="102" width="8.28515625" style="10"/>
+    <col min="103" max="103" width="8.28515625" style="146"/>
+    <col min="104" max="104" width="8.28515625" style="21"/>
+    <col min="105" max="16384" width="8.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="69"/>
-      <c r="BA1" s="69"/>
-      <c r="BB1" s="69"/>
-      <c r="BC1" s="69"/>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="69"/>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
-      <c r="BJ1" s="69"/>
-      <c r="BK1" s="69"/>
-      <c r="BL1" s="69"/>
-      <c r="BM1" s="69"/>
-      <c r="BN1" s="69"/>
-      <c r="BO1" s="69"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="69"/>
-      <c r="BR1" s="69"/>
-      <c r="BS1" s="69"/>
-      <c r="BT1" s="69"/>
-      <c r="BU1" s="69"/>
-      <c r="BV1" s="69"/>
-      <c r="BW1" s="69"/>
-      <c r="BX1" s="69"/>
-      <c r="BY1" s="69"/>
-      <c r="BZ1" s="69"/>
-      <c r="CA1" s="69"/>
-      <c r="CB1" s="69"/>
-      <c r="CC1" s="69"/>
-      <c r="CD1" s="69"/>
-      <c r="CE1" s="69"/>
-      <c r="CF1" s="69"/>
-      <c r="CG1" s="69"/>
-      <c r="CH1" s="69"/>
-      <c r="CI1" s="69"/>
-      <c r="CJ1" s="69"/>
-      <c r="CK1" s="69"/>
-      <c r="CL1" s="69"/>
-      <c r="CM1" s="69"/>
-      <c r="CN1" s="69"/>
-      <c r="CO1" s="69"/>
-      <c r="CP1" s="69"/>
-      <c r="CQ1" s="69"/>
-      <c r="CR1" s="69"/>
-      <c r="CS1" s="69"/>
-      <c r="CT1" s="69"/>
-      <c r="CU1" s="69"/>
-      <c r="CV1" s="69"/>
-      <c r="CW1" s="69"/>
-    </row>
-    <row r="2" spans="1:103" s="73" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="105"/>
+      <c r="BP1" s="105"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="105"/>
+      <c r="BS1" s="105"/>
+      <c r="BT1" s="105"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="105"/>
+      <c r="BW1" s="105"/>
+      <c r="BX1" s="105"/>
+      <c r="BY1" s="105"/>
+      <c r="BZ1" s="105"/>
+      <c r="CA1" s="105"/>
+      <c r="CB1" s="105"/>
+      <c r="CC1" s="105"/>
+      <c r="CD1" s="105"/>
+      <c r="CE1" s="105"/>
+      <c r="CF1" s="105"/>
+      <c r="CG1" s="105"/>
+      <c r="CH1" s="105"/>
+      <c r="CI1" s="105"/>
+      <c r="CJ1" s="105"/>
+      <c r="CK1" s="105"/>
+      <c r="CL1" s="105"/>
+      <c r="CM1" s="105"/>
+      <c r="CN1" s="105"/>
+      <c r="CO1" s="105"/>
+      <c r="CP1" s="105"/>
+      <c r="CQ1" s="105"/>
+      <c r="CR1" s="105"/>
+      <c r="CS1" s="105"/>
+      <c r="CT1" s="105"/>
+      <c r="CU1" s="105"/>
+      <c r="CV1" s="105"/>
+      <c r="CW1" s="105"/>
+      <c r="CX1" s="104"/>
+      <c r="CY1" s="106"/>
+    </row>
+    <row r="2" spans="1:104" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="107">
         <v>43853</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="108">
         <v>43854</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="108">
         <v>43857</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="108">
         <v>43858</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="108">
         <v>43859</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="108">
         <v>43860</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="108">
         <v>43861</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="108">
         <v>43864</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="108">
         <v>43865</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="108">
         <v>43866</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="108">
         <v>43867</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="108">
         <v>43868</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="108">
         <v>43871</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="108">
         <v>43872</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="108">
         <v>43873</v>
       </c>
-      <c r="Q2" s="67">
+      <c r="Q2" s="108">
         <v>43874</v>
       </c>
-      <c r="R2" s="67">
+      <c r="R2" s="108">
         <v>43875</v>
       </c>
-      <c r="S2" s="67">
+      <c r="S2" s="108">
         <v>43878</v>
       </c>
-      <c r="T2" s="67">
+      <c r="T2" s="108">
         <v>43879</v>
       </c>
-      <c r="U2" s="67">
+      <c r="U2" s="108">
         <v>43880</v>
       </c>
-      <c r="V2" s="67">
+      <c r="V2" s="108">
         <v>43881</v>
       </c>
-      <c r="W2" s="67">
+      <c r="W2" s="108">
         <v>43882</v>
       </c>
-      <c r="X2" s="67">
+      <c r="X2" s="108">
         <v>43888</v>
       </c>
-      <c r="Y2" s="67">
+      <c r="Y2" s="108">
         <v>43889</v>
       </c>
-      <c r="Z2" s="67">
+      <c r="Z2" s="108">
         <v>43892</v>
       </c>
-      <c r="AA2" s="67">
+      <c r="AA2" s="108">
         <v>43893</v>
       </c>
-      <c r="AB2" s="67">
+      <c r="AB2" s="108">
         <v>43894</v>
       </c>
-      <c r="AC2" s="67">
+      <c r="AC2" s="108">
         <v>43895</v>
       </c>
-      <c r="AD2" s="67">
+      <c r="AD2" s="108">
         <v>43896</v>
       </c>
-      <c r="AE2" s="67">
+      <c r="AE2" s="108">
         <v>43899</v>
       </c>
-      <c r="AF2" s="67">
+      <c r="AF2" s="108">
         <v>43900</v>
       </c>
-      <c r="AG2" s="67">
+      <c r="AG2" s="108">
         <v>43901</v>
       </c>
-      <c r="AH2" s="67">
+      <c r="AH2" s="108">
         <v>43902</v>
       </c>
-      <c r="AI2" s="67">
+      <c r="AI2" s="108">
         <v>43903</v>
       </c>
-      <c r="AJ2" s="67">
+      <c r="AJ2" s="108">
         <v>43906</v>
       </c>
-      <c r="AK2" s="67">
+      <c r="AK2" s="108">
         <v>43907</v>
       </c>
-      <c r="AL2" s="67">
+      <c r="AL2" s="108">
         <v>43908</v>
       </c>
-      <c r="AM2" s="67">
+      <c r="AM2" s="108">
         <v>43909</v>
       </c>
-      <c r="AN2" s="67">
+      <c r="AN2" s="108">
         <v>43910</v>
       </c>
-      <c r="AO2" s="67">
+      <c r="AO2" s="108">
         <v>43913</v>
       </c>
-      <c r="AP2" s="67">
+      <c r="AP2" s="108">
         <v>43914</v>
       </c>
-      <c r="AQ2" s="67">
+      <c r="AQ2" s="108">
         <v>43915</v>
       </c>
-      <c r="AR2" s="67">
+      <c r="AR2" s="108">
         <v>43916</v>
       </c>
-      <c r="AS2" s="67">
+      <c r="AS2" s="108">
         <v>43917</v>
       </c>
-      <c r="AT2" s="67">
+      <c r="AT2" s="108">
         <v>43920</v>
       </c>
-      <c r="AU2" s="67">
+      <c r="AU2" s="108">
         <v>43921</v>
       </c>
-      <c r="AV2" s="67">
+      <c r="AV2" s="108">
         <v>43922</v>
       </c>
-      <c r="AW2" s="67">
+      <c r="AW2" s="108">
         <v>43923</v>
       </c>
-      <c r="AX2" s="67">
+      <c r="AX2" s="108">
         <v>43924</v>
       </c>
-      <c r="AY2" s="67">
+      <c r="AY2" s="108">
         <v>43927</v>
       </c>
-      <c r="AZ2" s="67">
+      <c r="AZ2" s="108">
         <v>43928</v>
       </c>
-      <c r="BA2" s="67">
+      <c r="BA2" s="108">
         <v>43929</v>
       </c>
-      <c r="BB2" s="67">
+      <c r="BB2" s="108">
         <v>43930</v>
       </c>
-      <c r="BC2" s="67">
+      <c r="BC2" s="108">
         <v>43934</v>
       </c>
-      <c r="BD2" s="67">
+      <c r="BD2" s="108">
         <v>43935</v>
       </c>
-      <c r="BE2" s="67">
+      <c r="BE2" s="108">
         <v>43936</v>
       </c>
-      <c r="BF2" s="67">
+      <c r="BF2" s="108">
         <v>43937</v>
       </c>
-      <c r="BG2" s="67">
+      <c r="BG2" s="108">
         <v>43938</v>
       </c>
-      <c r="BH2" s="67">
+      <c r="BH2" s="108">
         <v>43943</v>
       </c>
-      <c r="BI2" s="67">
+      <c r="BI2" s="108">
         <v>43944</v>
       </c>
-      <c r="BJ2" s="67">
+      <c r="BJ2" s="108">
         <v>43945</v>
       </c>
-      <c r="BK2" s="67">
+      <c r="BK2" s="108">
         <v>43948</v>
       </c>
-      <c r="BL2" s="67">
+      <c r="BL2" s="108">
         <v>43949</v>
       </c>
-      <c r="BM2" s="67">
+      <c r="BM2" s="108">
         <v>43950</v>
       </c>
-      <c r="BN2" s="67">
+      <c r="BN2" s="108">
         <v>43951</v>
       </c>
-      <c r="BO2" s="67">
+      <c r="BO2" s="108">
         <v>43955</v>
       </c>
-      <c r="BP2" s="67">
+      <c r="BP2" s="108">
         <v>43956</v>
       </c>
-      <c r="BQ2" s="67">
+      <c r="BQ2" s="108">
         <v>43957</v>
       </c>
-      <c r="BR2" s="67">
+      <c r="BR2" s="108">
         <v>43958</v>
       </c>
-      <c r="BS2" s="67">
+      <c r="BS2" s="108">
         <v>43959</v>
       </c>
-      <c r="BT2" s="67">
+      <c r="BT2" s="108">
         <v>43962</v>
       </c>
-      <c r="BU2" s="67">
+      <c r="BU2" s="108">
         <v>43963</v>
       </c>
-      <c r="BV2" s="67">
+      <c r="BV2" s="108">
         <v>43964</v>
       </c>
-      <c r="BW2" s="67">
+      <c r="BW2" s="108">
         <v>43965</v>
       </c>
-      <c r="BX2" s="67">
+      <c r="BX2" s="108">
         <v>43966</v>
       </c>
-      <c r="BY2" s="67">
+      <c r="BY2" s="108">
         <v>43969</v>
       </c>
-      <c r="BZ2" s="67">
+      <c r="BZ2" s="108">
         <v>43970</v>
       </c>
-      <c r="CA2" s="67">
+      <c r="CA2" s="108">
         <v>43971</v>
       </c>
-      <c r="CB2" s="67">
+      <c r="CB2" s="108">
         <v>43972</v>
       </c>
-      <c r="CC2" s="67">
+      <c r="CC2" s="108">
         <v>43973</v>
       </c>
-      <c r="CD2" s="67">
+      <c r="CD2" s="108">
         <v>43976</v>
       </c>
-      <c r="CE2" s="67">
+      <c r="CE2" s="108">
         <v>43977</v>
       </c>
-      <c r="CF2" s="67">
+      <c r="CF2" s="108">
         <v>43978</v>
       </c>
-      <c r="CG2" s="67">
+      <c r="CG2" s="108">
         <v>43979</v>
       </c>
-      <c r="CH2" s="67">
+      <c r="CH2" s="108">
         <v>43980</v>
       </c>
-      <c r="CI2" s="67">
+      <c r="CI2" s="108">
         <v>43983</v>
       </c>
-      <c r="CJ2" s="67">
+      <c r="CJ2" s="108">
         <v>43984</v>
       </c>
-      <c r="CK2" s="67">
+      <c r="CK2" s="108">
         <v>43985</v>
       </c>
-      <c r="CL2" s="67">
+      <c r="CL2" s="108">
         <v>43986</v>
       </c>
-      <c r="CM2" s="67">
+      <c r="CM2" s="108">
         <v>43987</v>
       </c>
-      <c r="CN2" s="67">
+      <c r="CN2" s="108">
         <v>43990</v>
       </c>
-      <c r="CO2" s="67">
+      <c r="CO2" s="108">
         <v>43991</v>
       </c>
-      <c r="CP2" s="67">
+      <c r="CP2" s="108">
         <v>43992</v>
       </c>
-      <c r="CQ2" s="67">
+      <c r="CQ2" s="108">
         <v>43997</v>
       </c>
-      <c r="CR2" s="67">
+      <c r="CR2" s="108">
         <v>43998</v>
       </c>
-      <c r="CS2" s="67">
+      <c r="CS2" s="108">
         <v>43999</v>
       </c>
-      <c r="CT2" s="67">
+      <c r="CT2" s="108">
         <v>44000</v>
       </c>
-      <c r="CU2" s="67">
+      <c r="CU2" s="108">
         <v>44001</v>
       </c>
-      <c r="CV2" s="67">
+      <c r="CV2" s="108">
         <v>44004</v>
       </c>
-      <c r="CW2" s="67">
+      <c r="CW2" s="108">
         <v>44005</v>
       </c>
-      <c r="CX2" s="72">
+      <c r="CX2" s="68">
         <v>44000</v>
       </c>
-      <c r="CY2" s="72">
+      <c r="CY2" s="109">
         <v>44001</v>
       </c>
-    </row>
-    <row r="3" spans="1:103" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CZ2" s="100"/>
+    </row>
+    <row r="3" spans="1:104" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
@@ -2631,322 +2982,577 @@
       <c r="CU3" s="31"/>
       <c r="CV3" s="31"/>
       <c r="CW3" s="31"/>
-    </row>
-    <row r="4" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CY3" s="111"/>
+      <c r="CZ3" s="101"/>
+    </row>
+    <row r="4" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="89"/>
-    </row>
-    <row r="5" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="112"/>
+      <c r="G4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="CY4" s="113"/>
+      <c r="CZ4" s="16"/>
+    </row>
+    <row r="5" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="89"/>
-    </row>
-    <row r="6" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="112"/>
+      <c r="G5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="CY5" s="113"/>
+      <c r="CZ5" s="16"/>
+    </row>
+    <row r="6" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-    </row>
-    <row r="7" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="114"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="CY6" s="113"/>
+      <c r="CZ6" s="16"/>
+    </row>
+    <row r="7" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="114"/>
+      <c r="E7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="CY7" s="113"/>
+      <c r="CZ7" s="16"/>
+    </row>
+    <row r="8" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="114"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="CY8" s="113"/>
+      <c r="CZ8" s="16"/>
+    </row>
+    <row r="9" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="114"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="CY9" s="113"/>
+      <c r="CZ9" s="16"/>
+    </row>
+    <row r="10" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="114"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="CY10" s="113"/>
+      <c r="CZ10" s="16"/>
+    </row>
+    <row r="11" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="114"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="CY11" s="113"/>
+      <c r="CZ11" s="16"/>
+    </row>
+    <row r="12" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="114"/>
+      <c r="G12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="CY12" s="113"/>
+      <c r="CZ12" s="16"/>
+    </row>
+    <row r="13" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="114"/>
+      <c r="G13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="CY13" s="113"/>
+      <c r="CZ13" s="16"/>
+    </row>
+    <row r="14" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="114"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="CY14" s="113"/>
+      <c r="CZ14" s="16"/>
+    </row>
+    <row r="15" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:103" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="B15" s="114"/>
+      <c r="G15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="CY15" s="113"/>
+      <c r="CZ15" s="16"/>
+    </row>
+    <row r="16" spans="1:104" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="36"/>
-    </row>
-    <row r="17" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="B16" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="CY16" s="116"/>
+      <c r="CZ16" s="35"/>
+    </row>
+    <row r="17" spans="1:104" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="117"/>
+      <c r="CY17" s="118"/>
+      <c r="CZ17" s="38"/>
+    </row>
+    <row r="18" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="119"/>
+      <c r="P18" s="92"/>
+      <c r="CY18" s="120"/>
+      <c r="CZ18" s="17"/>
+    </row>
+    <row r="19" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="119"/>
+      <c r="P19" s="92"/>
+      <c r="CY19" s="120"/>
+      <c r="CZ19" s="17"/>
+    </row>
+    <row r="20" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="119"/>
+      <c r="P20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY20" s="120"/>
+      <c r="CZ20" s="17"/>
+    </row>
+    <row r="21" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="119"/>
+      <c r="P21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY21" s="120"/>
+      <c r="CZ21" s="17"/>
+    </row>
+    <row r="22" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="119"/>
+      <c r="P22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="CY22" s="120"/>
+      <c r="CZ22" s="17"/>
+    </row>
+    <row r="23" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="119"/>
+      <c r="Q23" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="96"/>
+      <c r="CY23" s="120"/>
+      <c r="CZ23" s="17"/>
+    </row>
+    <row r="24" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="119"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="CY24" s="120"/>
+      <c r="CZ24" s="17"/>
+    </row>
+    <row r="25" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="119"/>
+      <c r="P25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="CY25" s="120"/>
+      <c r="CZ25" s="17"/>
+    </row>
+    <row r="26" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="119"/>
+      <c r="CY26" s="120"/>
+      <c r="CZ26" s="17"/>
+    </row>
+    <row r="27" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:2" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="B27" s="119"/>
+      <c r="CY27" s="120"/>
+      <c r="CZ27" s="17"/>
+    </row>
+    <row r="28" spans="1:104" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" spans="1:2" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="B28" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="CY28" s="122"/>
+      <c r="CZ28" s="41"/>
+    </row>
+    <row r="29" spans="1:104" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="123"/>
+      <c r="CY29" s="124"/>
+      <c r="CZ29" s="44"/>
+    </row>
+    <row r="30" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="125"/>
+      <c r="AG30" s="98"/>
+      <c r="CY30" s="126"/>
+      <c r="CZ30" s="18"/>
+    </row>
+    <row r="31" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="18"/>
-    </row>
-    <row r="32" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="125"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="CY31" s="126"/>
+      <c r="CZ31" s="18"/>
+    </row>
+    <row r="32" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="125"/>
+      <c r="AL32" s="98"/>
+      <c r="AM32" s="98"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="CY32" s="126"/>
+      <c r="CZ32" s="18"/>
+    </row>
+    <row r="33" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="125"/>
+      <c r="AL33" s="98"/>
+      <c r="AM33" s="98"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="CY33" s="126"/>
+      <c r="CZ33" s="18"/>
+    </row>
+    <row r="34" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
+      <c r="B34" s="125"/>
+      <c r="AR34" s="98"/>
+      <c r="CY34" s="126"/>
+      <c r="CZ34" s="18"/>
+    </row>
+    <row r="35" spans="1:104" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="48"/>
-    </row>
-    <row r="36" spans="1:2" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="B35" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS35" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT35" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU35" s="88"/>
+      <c r="AV35" s="88"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="88"/>
+      <c r="AY35" s="88"/>
+      <c r="CY35" s="128"/>
+      <c r="CZ35" s="47"/>
+    </row>
+    <row r="36" spans="1:104" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-    </row>
-    <row r="37" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="129"/>
+      <c r="CY36" s="130"/>
+      <c r="CZ36" s="50"/>
+    </row>
+    <row r="37" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="19"/>
-    </row>
-    <row r="38" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="131"/>
+      <c r="AZ37" s="90"/>
+      <c r="CY37" s="132"/>
+      <c r="CZ37" s="19"/>
+    </row>
+    <row r="38" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="19"/>
-    </row>
-    <row r="39" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="131"/>
+      <c r="AZ38" s="90"/>
+      <c r="CY38" s="132"/>
+      <c r="CZ38" s="19"/>
+    </row>
+    <row r="39" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="19"/>
-    </row>
-    <row r="40" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="131"/>
+      <c r="BC39" s="90"/>
+      <c r="BD39" s="90"/>
+      <c r="BE39" s="90"/>
+      <c r="BF39" s="90"/>
+      <c r="CY39" s="132"/>
+      <c r="CZ39" s="19"/>
+    </row>
+    <row r="40" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="19"/>
-    </row>
-    <row r="41" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="131"/>
+      <c r="BC40" s="90"/>
+      <c r="CY40" s="132"/>
+      <c r="CZ40" s="19"/>
+    </row>
+    <row r="41" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="19"/>
-    </row>
-    <row r="42" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="131"/>
+      <c r="BC41" s="90"/>
+      <c r="CY41" s="132"/>
+      <c r="CZ41" s="19"/>
+    </row>
+    <row r="42" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="19"/>
-    </row>
-    <row r="43" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="131"/>
+      <c r="BA42" s="90"/>
+      <c r="CY42" s="132"/>
+      <c r="CZ42" s="19"/>
+    </row>
+    <row r="43" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:2" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="B43" s="131"/>
+      <c r="BB43" s="90"/>
+      <c r="CY43" s="132"/>
+      <c r="CZ43" s="19"/>
+    </row>
+    <row r="44" spans="1:104" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="54"/>
-    </row>
-    <row r="45" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="B44" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG44" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH44" s="148"/>
+      <c r="BI44" s="99"/>
+      <c r="BJ44" s="99"/>
+      <c r="BK44" s="99"/>
+      <c r="BL44" s="99"/>
+      <c r="CY44" s="134"/>
+      <c r="CZ44" s="53"/>
+    </row>
+    <row r="45" spans="1:104" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="60"/>
-    </row>
-    <row r="46" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="135"/>
+      <c r="CY45" s="136"/>
+      <c r="CZ45" s="59"/>
+    </row>
+    <row r="46" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="20"/>
-    </row>
-    <row r="47" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="137"/>
+      <c r="BM46" s="149"/>
+      <c r="CY46" s="138"/>
+      <c r="CZ46" s="20"/>
+    </row>
+    <row r="47" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="20"/>
-    </row>
-    <row r="48" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="137"/>
+      <c r="BM47" s="91"/>
+      <c r="CY47" s="138"/>
+      <c r="CZ47" s="20"/>
+    </row>
+    <row r="48" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="20"/>
-    </row>
-    <row r="49" spans="1:101" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="137"/>
+      <c r="CY48" s="138"/>
+      <c r="CZ48" s="20"/>
+    </row>
+    <row r="49" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="20"/>
-    </row>
-    <row r="50" spans="1:101" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="137"/>
+      <c r="BN49" s="91"/>
+      <c r="BO49" s="91"/>
+      <c r="CY49" s="138"/>
+      <c r="CZ49" s="20"/>
+    </row>
+    <row r="50" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="20"/>
-    </row>
-    <row r="51" spans="1:101" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="137"/>
+      <c r="BN50" s="91"/>
+      <c r="BO50" s="91"/>
+      <c r="CY50" s="138"/>
+      <c r="CZ50" s="20"/>
+    </row>
+    <row r="51" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="20"/>
-    </row>
-    <row r="52" spans="1:101" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="137"/>
+      <c r="CY51" s="138"/>
+      <c r="CZ51" s="20"/>
+    </row>
+    <row r="52" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="1:101" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
+      <c r="B52" s="137"/>
+      <c r="BP52" s="91"/>
+      <c r="CY52" s="138"/>
+      <c r="CZ52" s="20"/>
+    </row>
+    <row r="53" spans="1:104" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="63"/>
-    </row>
-    <row r="54" spans="1:101" s="65" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64" t="s">
+      <c r="B53" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ53" s="150"/>
+      <c r="BR53" s="150"/>
+      <c r="BS53" s="150"/>
+      <c r="BT53" s="150"/>
+      <c r="BU53" s="150"/>
+      <c r="CY53" s="140"/>
+      <c r="CZ53" s="62"/>
+    </row>
+    <row r="54" spans="1:104" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="66"/>
-      <c r="CW54" s="74"/>
-    </row>
-    <row r="55" spans="1:101" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="57"/>
+      <c r="B54" s="141"/>
+      <c r="CW54" s="70"/>
+      <c r="CY54" s="142"/>
+      <c r="CZ54" s="65"/>
+    </row>
+    <row r="55" spans="1:104" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="143"/>
+      <c r="CY55" s="144"/>
+      <c r="CZ55" s="56"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="BG44:BH44"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2956,1291 +3562,1291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="27.5703125" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="8.42578125" style="75"/>
+    <col min="1" max="1" width="9.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="27.5703125" style="71" customWidth="1"/>
+    <col min="7" max="16384" width="8.42578125" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="84" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="A4" s="82">
         <v>43853</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
-      <c r="BP4" s="76"/>
-      <c r="BQ4" s="76"/>
-      <c r="BR4" s="76"/>
-      <c r="BS4" s="76"/>
-      <c r="BT4" s="76"/>
-      <c r="BU4" s="76"/>
-      <c r="BV4" s="76"/>
-      <c r="BW4" s="76"/>
-      <c r="BX4" s="76"/>
-      <c r="BY4" s="76"/>
-      <c r="BZ4" s="76"/>
-      <c r="CA4" s="76"/>
-      <c r="CB4" s="76"/>
-      <c r="CC4" s="76"/>
-      <c r="CD4" s="76"/>
-      <c r="CE4" s="76"/>
-      <c r="CF4" s="76"/>
-      <c r="CG4" s="76"/>
-      <c r="CH4" s="76"/>
-      <c r="CI4" s="76"/>
-      <c r="CJ4" s="76"/>
-      <c r="CK4" s="76"/>
-      <c r="CL4" s="76"/>
-      <c r="CM4" s="76"/>
-      <c r="CN4" s="76"/>
-      <c r="CO4" s="76"/>
-      <c r="CP4" s="76"/>
-      <c r="CQ4" s="76"/>
-      <c r="CR4" s="76"/>
-      <c r="CS4" s="76"/>
-      <c r="CT4" s="76"/>
-      <c r="CU4" s="76"/>
-      <c r="CV4" s="76"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="72"/>
+      <c r="BP4" s="72"/>
+      <c r="BQ4" s="72"/>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="72"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="72"/>
+      <c r="CB4" s="72"/>
+      <c r="CC4" s="72"/>
+      <c r="CD4" s="72"/>
+      <c r="CE4" s="72"/>
+      <c r="CF4" s="72"/>
+      <c r="CG4" s="72"/>
+      <c r="CH4" s="72"/>
+      <c r="CI4" s="72"/>
+      <c r="CJ4" s="72"/>
+      <c r="CK4" s="72"/>
+      <c r="CL4" s="72"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="72"/>
+      <c r="CP4" s="72"/>
+      <c r="CQ4" s="72"/>
+      <c r="CR4" s="72"/>
+      <c r="CS4" s="72"/>
+      <c r="CT4" s="72"/>
+      <c r="CU4" s="72"/>
+      <c r="CV4" s="72"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A5" s="86">
+      <c r="A5" s="82">
         <v>43854</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A6" s="86">
+      <c r="A6" s="82">
         <v>43857</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="82">
         <v>43858</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A8" s="86">
+      <c r="A8" s="82">
         <v>43859</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+      <c r="A9" s="82">
         <v>43860</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A10" s="86">
+      <c r="A10" s="82">
         <v>43861</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="A11" s="82">
         <v>43864</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A12" s="86">
+      <c r="A12" s="82">
         <v>43865</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
+      <c r="A13" s="82">
         <v>43866</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A14" s="86">
+      <c r="A14" s="82">
         <v>43867</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="86">
+      <c r="A15" s="82">
         <v>43868</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
+      <c r="A16" s="82">
         <v>43871</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
+      <c r="A17" s="82">
         <v>43872</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
+      <c r="A18" s="82">
         <v>43873</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
+      <c r="A19" s="82">
         <v>43874</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="86">
+      <c r="A20" s="82">
         <v>43875</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
+      <c r="A21" s="82">
         <v>43878</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="86">
+      <c r="A22" s="82">
         <v>43879</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="86">
+      <c r="A23" s="82">
         <v>43880</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="86">
+      <c r="A24" s="82">
         <v>43881</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="86">
+      <c r="A25" s="82">
         <v>43882</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
+      <c r="A26" s="82">
         <v>43888</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="86">
+      <c r="A27" s="82">
         <v>43889</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="86">
+      <c r="A28" s="82">
         <v>43892</v>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="82">
         <v>43893</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="86">
+      <c r="A30" s="82">
         <v>43894</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="86">
+      <c r="A31" s="82">
         <v>43895</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="86">
+      <c r="A32" s="82">
         <v>43896</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="86">
+      <c r="A33" s="82">
         <v>43899</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="86">
+      <c r="A34" s="82">
         <v>43900</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="86">
+      <c r="A35" s="82">
         <v>43901</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="86">
+      <c r="A36" s="82">
         <v>43902</v>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
+      <c r="A37" s="82">
         <v>43903</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="86">
+      <c r="A38" s="82">
         <v>43906</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="86">
+      <c r="A39" s="82">
         <v>43907</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="86">
+      <c r="A40" s="82">
         <v>43908</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
+      <c r="A41" s="82">
         <v>43909</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="86">
+      <c r="A42" s="82">
         <v>43910</v>
       </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="86">
+      <c r="A43" s="82">
         <v>43913</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="86">
+      <c r="A44" s="82">
         <v>43914</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
+      <c r="A45" s="82">
         <v>43915</v>
       </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="86">
+      <c r="A46" s="82">
         <v>43916</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="86">
+      <c r="A47" s="82">
         <v>43917</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="86">
+      <c r="A48" s="82">
         <v>43920</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="86">
+      <c r="A49" s="82">
         <v>43921</v>
       </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="86">
+      <c r="A50" s="82">
         <v>43922</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
+      <c r="A51" s="82">
         <v>43923</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="86">
+      <c r="A52" s="82">
         <v>43924</v>
       </c>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="86">
+      <c r="A53" s="82">
         <v>43927</v>
       </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="86">
+      <c r="A54" s="82">
         <v>43928</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
+      <c r="A55" s="82">
         <v>43929</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
+      <c r="A56" s="82">
         <v>43930</v>
       </c>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
+      <c r="A57" s="82">
         <v>43934</v>
       </c>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="86">
+      <c r="A58" s="82">
         <v>43935</v>
       </c>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
+      <c r="A59" s="82">
         <v>43936</v>
       </c>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="86">
+      <c r="A60" s="82">
         <v>43937</v>
       </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="86">
+      <c r="A61" s="82">
         <v>43938</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="86">
+      <c r="A62" s="82">
         <v>43943</v>
       </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="86">
+      <c r="A63" s="82">
         <v>43944</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="86">
+      <c r="A64" s="82">
         <v>43945</v>
       </c>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="86">
+      <c r="A65" s="82">
         <v>43948</v>
       </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="86">
+      <c r="A66" s="82">
         <v>43949</v>
       </c>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
+      <c r="A67" s="82">
         <v>43950</v>
       </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="86">
+      <c r="A68" s="82">
         <v>43951</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="86">
+      <c r="A69" s="82">
         <v>43955</v>
       </c>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="86">
+      <c r="A70" s="82">
         <v>43956</v>
       </c>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="86">
+      <c r="A71" s="82">
         <v>43957</v>
       </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="86">
+      <c r="A72" s="82">
         <v>43958</v>
       </c>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="86">
+      <c r="A73" s="82">
         <v>43959</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="86">
+      <c r="A74" s="82">
         <v>43962</v>
       </c>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="86">
+      <c r="A75" s="82">
         <v>43963</v>
       </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="86">
+      <c r="A76" s="82">
         <v>43964</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="86">
+      <c r="A77" s="82">
         <v>43965</v>
       </c>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="86">
+      <c r="A78" s="82">
         <v>43966</v>
       </c>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="86">
+      <c r="A79" s="82">
         <v>43969</v>
       </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="86">
+      <c r="A80" s="82">
         <v>43970</v>
       </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="86">
+      <c r="A81" s="82">
         <v>43971</v>
       </c>
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="86">
+      <c r="A82" s="82">
         <v>43972</v>
       </c>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="86">
+      <c r="A83" s="82">
         <v>43973</v>
       </c>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="86">
+      <c r="A84" s="82">
         <v>43976</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="86">
+      <c r="A85" s="82">
         <v>43977</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="84"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="86">
+      <c r="A86" s="82">
         <v>43978</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="86">
+      <c r="A87" s="82">
         <v>43979</v>
       </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="86">
+      <c r="A88" s="82">
         <v>43980</v>
       </c>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="86">
+      <c r="A89" s="82">
         <v>43983</v>
       </c>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="86">
+      <c r="A90" s="82">
         <v>43984</v>
       </c>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="84"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="86">
+      <c r="A91" s="82">
         <v>43985</v>
       </c>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="86">
+      <c r="A92" s="82">
         <v>43986</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="86">
+      <c r="A93" s="82">
         <v>43987</v>
       </c>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="86">
+      <c r="A94" s="82">
         <v>43990</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="86">
+      <c r="A95" s="82">
         <v>43991</v>
       </c>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="86">
+      <c r="A96" s="82">
         <v>43992</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="86">
+      <c r="A97" s="82">
         <v>43997</v>
       </c>
-      <c r="B97" s="84"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="86">
+      <c r="A98" s="82">
         <v>43998</v>
       </c>
-      <c r="B98" s="84"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="84"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="86">
+      <c r="A99" s="82">
         <v>43999</v>
       </c>
-      <c r="B99" s="84"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="86">
+      <c r="A100" s="82">
         <v>44000</v>
       </c>
-      <c r="B100" s="84"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="86">
+      <c r="A101" s="82">
         <v>44001</v>
       </c>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="84"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="86">
+      <c r="A102" s="82">
         <v>44004</v>
       </c>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="84"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="86">
+      <c r="A103" s="82">
         <v>44005</v>
       </c>
-      <c r="B103" s="84"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="84"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
+      <c r="A104" s="74"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
+      <c r="A105" s="74"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
+      <c r="A106" s="74"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
+      <c r="A107" s="74"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
+      <c r="A108" s="74"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="78"/>
+      <c r="A109" s="74"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
+      <c r="A110" s="74"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="78"/>
+      <c r="A111" s="74"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="78"/>
+      <c r="A112" s="74"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
+      <c r="A113" s="74"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
+      <c r="A114" s="74"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
+      <c r="A115" s="74"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="78"/>
+      <c r="A116" s="74"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="78"/>
+      <c r="A117" s="74"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
+      <c r="A118" s="74"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="78"/>
+      <c r="A119" s="74"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="78"/>
+      <c r="A120" s="74"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="78"/>
+      <c r="A121" s="74"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="78"/>
+      <c r="A122" s="74"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="78"/>
+      <c r="A123" s="74"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
+      <c r="A124" s="74"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
+      <c r="A125" s="74"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="78"/>
+      <c r="A126" s="74"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="78"/>
+      <c r="A127" s="74"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
+      <c r="A128" s="74"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="78"/>
+      <c r="A129" s="74"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="78"/>
+      <c r="A130" s="74"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="78"/>
+      <c r="A131" s="74"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="78"/>
+      <c r="A132" s="74"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="78"/>
+      <c r="A133" s="74"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
+      <c r="A134" s="74"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="78"/>
+      <c r="A135" s="74"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="78"/>
+      <c r="A136" s="74"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="78"/>
+      <c r="A137" s="74"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="78"/>
+      <c r="A138" s="74"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="78"/>
+      <c r="A139" s="74"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="78"/>
+      <c r="A140" s="74"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="78"/>
+      <c r="A141" s="74"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="78"/>
+      <c r="A142" s="74"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
+      <c r="A143" s="74"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
+      <c r="A144" s="74"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="78"/>
+      <c r="A145" s="74"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="78"/>
+      <c r="A146" s="74"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="78"/>
+      <c r="A147" s="74"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="78"/>
+      <c r="A148" s="74"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
+      <c r="A149" s="74"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="78"/>
+      <c r="A150" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/documentos/cronograma.xlsx
+++ b/documentos/cronograma.xlsx
@@ -317,7 +317,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -917,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1133,14 +1139,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,15 +2454,25 @@
   <dimension ref="A1:CZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ53" sqref="BQ53:BU53"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="145"/>
-    <col min="3" max="102" width="8.28515625" style="10"/>
+    <col min="3" max="6" width="8.28515625" style="10"/>
+    <col min="7" max="7" width="8.28515625" style="154"/>
+    <col min="8" max="16" width="8.28515625" style="10"/>
+    <col min="17" max="17" width="8.28515625" style="154"/>
+    <col min="18" max="23" width="8.28515625" style="10"/>
+    <col min="24" max="24" width="8.28515625" style="154"/>
+    <col min="25" max="43" width="8.28515625" style="10"/>
+    <col min="44" max="44" width="8.28515625" style="154"/>
+    <col min="45" max="60" width="8.28515625" style="10"/>
+    <col min="61" max="61" width="8.28515625" style="154"/>
+    <col min="62" max="102" width="8.28515625" style="10"/>
     <col min="103" max="103" width="8.28515625" style="146"/>
     <col min="104" max="104" width="8.28515625" style="21"/>
     <col min="105" max="16384" width="8.28515625" style="10"/>
@@ -2468,7 +2495,7 @@
       <c r="F1" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="103"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="103"/>
       <c r="I1" s="103"/>
       <c r="J1" s="103"/>
@@ -2478,14 +2505,14 @@
       <c r="N1" s="103"/>
       <c r="O1" s="103"/>
       <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
+      <c r="Q1" s="151"/>
       <c r="R1" s="104"/>
       <c r="S1" s="105"/>
       <c r="T1" s="105"/>
       <c r="U1" s="105"/>
       <c r="V1" s="105"/>
       <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
+      <c r="X1" s="159"/>
       <c r="Y1" s="105"/>
       <c r="Z1" s="105"/>
       <c r="AA1" s="105"/>
@@ -2505,7 +2532,7 @@
       <c r="AO1" s="105"/>
       <c r="AP1" s="105"/>
       <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
+      <c r="AR1" s="159"/>
       <c r="AS1" s="105"/>
       <c r="AT1" s="105"/>
       <c r="AU1" s="105"/>
@@ -2522,7 +2549,7 @@
       <c r="BF1" s="105"/>
       <c r="BG1" s="105"/>
       <c r="BH1" s="105"/>
-      <c r="BI1" s="105"/>
+      <c r="BI1" s="159"/>
       <c r="BJ1" s="105"/>
       <c r="BK1" s="105"/>
       <c r="BL1" s="105"/>
@@ -2585,7 +2612,7 @@
       <c r="F2" s="108">
         <v>43859</v>
       </c>
-      <c r="G2" s="108">
+      <c r="G2" s="152">
         <v>43860</v>
       </c>
       <c r="H2" s="108">
@@ -2615,7 +2642,7 @@
       <c r="P2" s="108">
         <v>43873</v>
       </c>
-      <c r="Q2" s="108">
+      <c r="Q2" s="152">
         <v>43874</v>
       </c>
       <c r="R2" s="108">
@@ -2636,7 +2663,7 @@
       <c r="W2" s="108">
         <v>43882</v>
       </c>
-      <c r="X2" s="108">
+      <c r="X2" s="152">
         <v>43888</v>
       </c>
       <c r="Y2" s="108">
@@ -2696,7 +2723,7 @@
       <c r="AQ2" s="108">
         <v>43915</v>
       </c>
-      <c r="AR2" s="108">
+      <c r="AR2" s="152">
         <v>43916</v>
       </c>
       <c r="AS2" s="108">
@@ -2747,7 +2774,7 @@
       <c r="BH2" s="108">
         <v>43943</v>
       </c>
-      <c r="BI2" s="108">
+      <c r="BI2" s="152">
         <v>43944</v>
       </c>
       <c r="BJ2" s="108">
@@ -2887,24 +2914,24 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="87"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="Q3" s="158"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
       <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="X3" s="158"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="31"/>
@@ -2924,7 +2951,7 @@
       <c r="AO3" s="31"/>
       <c r="AP3" s="31"/>
       <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
+      <c r="AR3" s="158"/>
       <c r="AS3" s="31"/>
       <c r="AT3" s="31"/>
       <c r="AU3" s="31"/>
@@ -2941,7 +2968,7 @@
       <c r="BF3" s="31"/>
       <c r="BG3" s="31"/>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
+      <c r="BI3" s="158"/>
       <c r="BJ3" s="31"/>
       <c r="BK3" s="31"/>
       <c r="BL3" s="31"/>
@@ -2990,8 +3017,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="112"/>
-      <c r="G4" s="85"/>
-      <c r="J4" s="85"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="Q4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="BI4" s="154"/>
       <c r="CY4" s="113"/>
       <c r="CZ4" s="16"/>
     </row>
@@ -3000,8 +3032,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="112"/>
-      <c r="G5" s="85"/>
-      <c r="J5" s="85"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="Q5" s="154"/>
+      <c r="X5" s="154"/>
+      <c r="AR5" s="154"/>
+      <c r="BI5" s="154"/>
       <c r="CY5" s="113"/>
       <c r="CZ5" s="16"/>
     </row>
@@ -3013,8 +3050,13 @@
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="Q6" s="154"/>
+      <c r="X6" s="154"/>
+      <c r="AR6" s="154"/>
+      <c r="BI6" s="154"/>
       <c r="CY6" s="113"/>
       <c r="CZ6" s="16"/>
     </row>
@@ -3024,8 +3066,13 @@
       </c>
       <c r="B7" s="114"/>
       <c r="E7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="Q7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="AR7" s="154"/>
+      <c r="BI7" s="154"/>
       <c r="CY7" s="113"/>
       <c r="CZ7" s="16"/>
     </row>
@@ -3036,8 +3083,13 @@
       <c r="B8" s="114"/>
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="J8" s="85"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="Q8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="AR8" s="154"/>
+      <c r="BI8" s="154"/>
       <c r="CY8" s="113"/>
       <c r="CZ8" s="16"/>
     </row>
@@ -3047,8 +3099,13 @@
       </c>
       <c r="B9" s="114"/>
       <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="J9" s="85"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="Q9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="AR9" s="154"/>
+      <c r="BI9" s="154"/>
       <c r="CY9" s="113"/>
       <c r="CZ9" s="16"/>
     </row>
@@ -3058,8 +3115,13 @@
       </c>
       <c r="B10" s="114"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="J10" s="85"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="Q10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="AR10" s="154"/>
+      <c r="BI10" s="154"/>
       <c r="CY10" s="113"/>
       <c r="CZ10" s="16"/>
     </row>
@@ -3068,10 +3130,15 @@
         <v>14</v>
       </c>
       <c r="B11" s="114"/>
-      <c r="G11" s="85"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="85"/>
       <c r="I11" s="85"/>
       <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="Q11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="AR11" s="154"/>
+      <c r="BI11" s="154"/>
       <c r="CY11" s="113"/>
       <c r="CZ11" s="16"/>
     </row>
@@ -3080,10 +3147,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="114"/>
-      <c r="G12" s="85"/>
-      <c r="J12" s="85"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="85"/>
       <c r="K12" s="85"/>
       <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="Q12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="AR12" s="154"/>
+      <c r="BI12" s="154"/>
       <c r="CY12" s="113"/>
       <c r="CZ12" s="16"/>
     </row>
@@ -3092,10 +3164,15 @@
         <v>17</v>
       </c>
       <c r="B13" s="114"/>
-      <c r="G13" s="85"/>
-      <c r="J13" s="85"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="85"/>
       <c r="K13" s="85"/>
       <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="Q13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="AR13" s="154"/>
+      <c r="BI13" s="154"/>
       <c r="CY13" s="113"/>
       <c r="CZ13" s="16"/>
     </row>
@@ -3104,9 +3181,14 @@
         <v>15</v>
       </c>
       <c r="B14" s="114"/>
-      <c r="G14" s="85"/>
+      <c r="G14" s="154"/>
       <c r="H14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="Q14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="AR14" s="154"/>
+      <c r="BI14" s="154"/>
       <c r="CY14" s="113"/>
       <c r="CZ14" s="16"/>
     </row>
@@ -3115,10 +3197,15 @@
         <v>16</v>
       </c>
       <c r="B15" s="114"/>
-      <c r="G15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="85"/>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="Q15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="AR15" s="154"/>
+      <c r="BI15" s="154"/>
       <c r="CY15" s="113"/>
       <c r="CZ15" s="16"/>
     </row>
@@ -3129,9 +3216,14 @@
       <c r="B16" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="89"/>
+      <c r="G16" s="155"/>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="AR16" s="155"/>
+      <c r="BI16" s="155"/>
       <c r="CY16" s="116"/>
       <c r="CZ16" s="35"/>
     </row>
@@ -3140,6 +3232,12 @@
         <v>43</v>
       </c>
       <c r="B17" s="117"/>
+      <c r="G17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="96"/>
+      <c r="AR17" s="153"/>
+      <c r="BI17" s="153"/>
       <c r="CY17" s="118"/>
       <c r="CZ17" s="38"/>
     </row>
@@ -3148,7 +3246,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="119"/>
-      <c r="P18" s="92"/>
+      <c r="G18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="92"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="96"/>
+      <c r="AR18" s="154"/>
+      <c r="BI18" s="154"/>
       <c r="CY18" s="120"/>
       <c r="CZ18" s="17"/>
     </row>
@@ -3157,7 +3261,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="119"/>
-      <c r="P19" s="92"/>
+      <c r="G19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="92"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="96"/>
+      <c r="AR19" s="154"/>
+      <c r="BI19" s="154"/>
       <c r="CY19" s="120"/>
       <c r="CZ19" s="17"/>
     </row>
@@ -3166,9 +3276,15 @@
         <v>21</v>
       </c>
       <c r="B20" s="119"/>
-      <c r="P20" s="12" t="s">
+      <c r="G20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="96"/>
+      <c r="AR20" s="154"/>
+      <c r="BI20" s="154"/>
       <c r="CY20" s="120"/>
       <c r="CZ20" s="17"/>
     </row>
@@ -3177,9 +3293,15 @@
         <v>27</v>
       </c>
       <c r="B21" s="119"/>
-      <c r="P21" s="12" t="s">
+      <c r="G21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="96"/>
+      <c r="AR21" s="154"/>
+      <c r="BI21" s="154"/>
       <c r="CY21" s="120"/>
       <c r="CZ21" s="17"/>
     </row>
@@ -3188,9 +3310,15 @@
         <v>22</v>
       </c>
       <c r="B22" s="119"/>
-      <c r="P22" s="12" t="s">
+      <c r="G22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="12" t="s">
         <v>71</v>
       </c>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="96"/>
+      <c r="AR22" s="154"/>
+      <c r="BI22" s="154"/>
       <c r="CY22" s="120"/>
       <c r="CZ22" s="17"/>
     </row>
@@ -3199,16 +3327,21 @@
         <v>23</v>
       </c>
       <c r="B23" s="119"/>
-      <c r="Q23" s="93" t="s">
+      <c r="G23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="S23" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="94" t="s">
+      <c r="T23" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
       <c r="U23" s="95"/>
-      <c r="V23" s="96"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="96"/>
+      <c r="AR23" s="154"/>
+      <c r="BI23" s="154"/>
       <c r="CY23" s="120"/>
       <c r="CZ23" s="17"/>
     </row>
@@ -3217,11 +3350,17 @@
         <v>26</v>
       </c>
       <c r="B24" s="119"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
+      <c r="G24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="X24" s="154"/>
+      <c r="Y24" s="96"/>
       <c r="Z24" s="92"/>
       <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AR24" s="154"/>
+      <c r="BI24" s="154"/>
       <c r="CY24" s="120"/>
       <c r="CZ24" s="17"/>
     </row>
@@ -3230,9 +3369,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="119"/>
-      <c r="P25" s="12" t="s">
+      <c r="G25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="X25" s="154"/>
+      <c r="Y25" s="96"/>
+      <c r="AR25" s="154"/>
+      <c r="BI25" s="154"/>
       <c r="CY25" s="120"/>
       <c r="CZ25" s="17"/>
     </row>
@@ -3241,6 +3386,12 @@
         <v>24</v>
       </c>
       <c r="B26" s="119"/>
+      <c r="G26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="96"/>
+      <c r="AR26" s="154"/>
+      <c r="BI26" s="154"/>
       <c r="CY26" s="120"/>
       <c r="CZ26" s="17"/>
     </row>
@@ -3249,6 +3400,12 @@
         <v>28</v>
       </c>
       <c r="B27" s="119"/>
+      <c r="G27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="96"/>
+      <c r="AR27" s="154"/>
+      <c r="BI27" s="154"/>
       <c r="CY27" s="120"/>
       <c r="CZ27" s="17"/>
     </row>
@@ -3259,11 +3416,16 @@
       <c r="B28" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
+      <c r="G28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="X28" s="155"/>
       <c r="AE28" s="97"/>
       <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="97"/>
+      <c r="AR28" s="155"/>
+      <c r="BI28" s="155"/>
       <c r="CY28" s="122"/>
       <c r="CZ28" s="41"/>
     </row>
@@ -3272,6 +3434,11 @@
         <v>44</v>
       </c>
       <c r="B29" s="123"/>
+      <c r="G29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="AR29" s="153"/>
+      <c r="BI29" s="153"/>
       <c r="CY29" s="124"/>
       <c r="CZ29" s="44"/>
     </row>
@@ -3280,7 +3447,12 @@
         <v>2</v>
       </c>
       <c r="B30" s="125"/>
-      <c r="AG30" s="98"/>
+      <c r="G30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="AJ30" s="98"/>
+      <c r="AR30" s="154"/>
+      <c r="BI30" s="154"/>
       <c r="CY30" s="126"/>
       <c r="CZ30" s="18"/>
     </row>
@@ -3289,11 +3461,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="125"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
+      <c r="G31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="X31" s="154"/>
       <c r="AJ31" s="98"/>
       <c r="AK31" s="98"/>
+      <c r="AL31" s="98"/>
+      <c r="AM31" s="98"/>
+      <c r="AN31" s="98"/>
+      <c r="AR31" s="154"/>
+      <c r="BI31" s="154"/>
       <c r="CY31" s="126"/>
       <c r="CZ31" s="18"/>
     </row>
@@ -3302,12 +3479,17 @@
         <v>1</v>
       </c>
       <c r="B32" s="125"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="98"/>
+      <c r="G32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="X32" s="154"/>
       <c r="AO32" s="98"/>
       <c r="AP32" s="98"/>
       <c r="AQ32" s="98"/>
+      <c r="AR32" s="154"/>
+      <c r="AS32" s="98"/>
+      <c r="AT32" s="98"/>
+      <c r="AU32" s="98"/>
+      <c r="BI32" s="154"/>
       <c r="CY32" s="126"/>
       <c r="CZ32" s="18"/>
     </row>
@@ -3316,12 +3498,17 @@
         <v>0</v>
       </c>
       <c r="B33" s="125"/>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="98"/>
+      <c r="G33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="X33" s="154"/>
       <c r="AO33" s="98"/>
       <c r="AP33" s="98"/>
       <c r="AQ33" s="98"/>
+      <c r="AR33" s="154"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="98"/>
+      <c r="BI33" s="154"/>
       <c r="CY33" s="126"/>
       <c r="CZ33" s="18"/>
     </row>
@@ -3330,7 +3517,12 @@
         <v>4</v>
       </c>
       <c r="B34" s="125"/>
-      <c r="AR34" s="98"/>
+      <c r="G34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="X34" s="154"/>
+      <c r="AR34" s="154"/>
+      <c r="AV34" s="98"/>
+      <c r="BI34" s="154"/>
       <c r="CY34" s="126"/>
       <c r="CZ34" s="18"/>
     </row>
@@ -3341,17 +3533,22 @@
       <c r="B35" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="AS35" s="88" t="s">
+      <c r="G35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="X35" s="155"/>
+      <c r="AR35" s="155"/>
+      <c r="AW35" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AT35" s="88" t="s">
+      <c r="AX35" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AU35" s="88"/>
-      <c r="AV35" s="88"/>
-      <c r="AW35" s="88"/>
-      <c r="AX35" s="88"/>
       <c r="AY35" s="88"/>
+      <c r="AZ35" s="88"/>
+      <c r="BA35" s="88"/>
+      <c r="BB35" s="88"/>
+      <c r="BC35" s="88"/>
+      <c r="BI35" s="155"/>
       <c r="CY35" s="128"/>
       <c r="CZ35" s="47"/>
     </row>
@@ -3360,6 +3557,11 @@
         <v>45</v>
       </c>
       <c r="B36" s="129"/>
+      <c r="G36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="AR36" s="153"/>
+      <c r="BI36" s="153"/>
       <c r="CY36" s="130"/>
       <c r="CZ36" s="50"/>
     </row>
@@ -3368,7 +3570,12 @@
         <v>29</v>
       </c>
       <c r="B37" s="131"/>
-      <c r="AZ37" s="90"/>
+      <c r="G37" s="154"/>
+      <c r="Q37" s="154"/>
+      <c r="X37" s="154"/>
+      <c r="AR37" s="154"/>
+      <c r="BD37" s="90"/>
+      <c r="BI37" s="154"/>
       <c r="CY37" s="132"/>
       <c r="CZ37" s="19"/>
     </row>
@@ -3377,7 +3584,12 @@
         <v>31</v>
       </c>
       <c r="B38" s="131"/>
-      <c r="AZ38" s="90"/>
+      <c r="G38" s="154"/>
+      <c r="Q38" s="154"/>
+      <c r="X38" s="154"/>
+      <c r="AR38" s="154"/>
+      <c r="BD38" s="90"/>
+      <c r="BI38" s="154"/>
       <c r="CY38" s="132"/>
       <c r="CZ38" s="19"/>
     </row>
@@ -3386,10 +3598,15 @@
         <v>35</v>
       </c>
       <c r="B39" s="131"/>
-      <c r="BC39" s="90"/>
-      <c r="BD39" s="90"/>
-      <c r="BE39" s="90"/>
-      <c r="BF39" s="90"/>
+      <c r="G39" s="154"/>
+      <c r="Q39" s="154"/>
+      <c r="X39" s="154"/>
+      <c r="AR39" s="154"/>
+      <c r="BG39" s="90"/>
+      <c r="BH39" s="90"/>
+      <c r="BI39" s="154"/>
+      <c r="BJ39" s="90"/>
+      <c r="BK39" s="90"/>
       <c r="CY39" s="132"/>
       <c r="CZ39" s="19"/>
     </row>
@@ -3398,7 +3615,12 @@
         <v>30</v>
       </c>
       <c r="B40" s="131"/>
-      <c r="BC40" s="90"/>
+      <c r="G40" s="154"/>
+      <c r="Q40" s="154"/>
+      <c r="X40" s="154"/>
+      <c r="AR40" s="154"/>
+      <c r="BG40" s="90"/>
+      <c r="BI40" s="154"/>
       <c r="CY40" s="132"/>
       <c r="CZ40" s="19"/>
     </row>
@@ -3407,7 +3629,12 @@
         <v>33</v>
       </c>
       <c r="B41" s="131"/>
-      <c r="BC41" s="90"/>
+      <c r="G41" s="154"/>
+      <c r="Q41" s="154"/>
+      <c r="X41" s="154"/>
+      <c r="AR41" s="154"/>
+      <c r="BG41" s="90"/>
+      <c r="BI41" s="154"/>
       <c r="CY41" s="132"/>
       <c r="CZ41" s="19"/>
     </row>
@@ -3416,7 +3643,12 @@
         <v>34</v>
       </c>
       <c r="B42" s="131"/>
-      <c r="BA42" s="90"/>
+      <c r="G42" s="154"/>
+      <c r="Q42" s="154"/>
+      <c r="X42" s="154"/>
+      <c r="AR42" s="154"/>
+      <c r="BE42" s="90"/>
+      <c r="BI42" s="154"/>
       <c r="CY42" s="132"/>
       <c r="CZ42" s="19"/>
     </row>
@@ -3425,7 +3657,12 @@
         <v>32</v>
       </c>
       <c r="B43" s="131"/>
-      <c r="BB43" s="90"/>
+      <c r="G43" s="154"/>
+      <c r="Q43" s="154"/>
+      <c r="X43" s="154"/>
+      <c r="AR43" s="154"/>
+      <c r="BF43" s="90"/>
+      <c r="BI43" s="154"/>
       <c r="CY43" s="132"/>
       <c r="CZ43" s="19"/>
     </row>
@@ -3436,14 +3673,19 @@
       <c r="B44" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="BG44" s="147" t="s">
+      <c r="G44" s="155"/>
+      <c r="Q44" s="155"/>
+      <c r="X44" s="155"/>
+      <c r="AR44" s="155"/>
+      <c r="BI44" s="155"/>
+      <c r="BL44" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="BH44" s="148"/>
-      <c r="BI44" s="99"/>
-      <c r="BJ44" s="99"/>
-      <c r="BK44" s="99"/>
-      <c r="BL44" s="99"/>
+      <c r="BM44" s="150"/>
+      <c r="BN44" s="99"/>
+      <c r="BO44" s="99"/>
+      <c r="BP44" s="99"/>
+      <c r="BQ44" s="99"/>
       <c r="CY44" s="134"/>
       <c r="CZ44" s="53"/>
     </row>
@@ -3452,6 +3694,11 @@
         <v>40</v>
       </c>
       <c r="B45" s="135"/>
+      <c r="G45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="X45" s="153"/>
+      <c r="AR45" s="153"/>
+      <c r="BI45" s="153"/>
       <c r="CY45" s="136"/>
       <c r="CZ45" s="59"/>
     </row>
@@ -3460,7 +3707,12 @@
         <v>5</v>
       </c>
       <c r="B46" s="137"/>
-      <c r="BM46" s="149"/>
+      <c r="G46" s="154"/>
+      <c r="Q46" s="154"/>
+      <c r="X46" s="154"/>
+      <c r="AR46" s="154"/>
+      <c r="BI46" s="154"/>
+      <c r="BR46" s="147"/>
       <c r="CY46" s="138"/>
       <c r="CZ46" s="20"/>
     </row>
@@ -3469,7 +3721,12 @@
         <v>12</v>
       </c>
       <c r="B47" s="137"/>
-      <c r="BM47" s="91"/>
+      <c r="G47" s="154"/>
+      <c r="Q47" s="154"/>
+      <c r="X47" s="154"/>
+      <c r="AR47" s="154"/>
+      <c r="BI47" s="154"/>
+      <c r="BR47" s="91"/>
       <c r="CY47" s="138"/>
       <c r="CZ47" s="20"/>
     </row>
@@ -3478,6 +3735,11 @@
         <v>43</v>
       </c>
       <c r="B48" s="137"/>
+      <c r="G48" s="154"/>
+      <c r="Q48" s="154"/>
+      <c r="X48" s="154"/>
+      <c r="AR48" s="154"/>
+      <c r="BI48" s="154"/>
       <c r="CY48" s="138"/>
       <c r="CZ48" s="20"/>
     </row>
@@ -3486,8 +3748,13 @@
         <v>25</v>
       </c>
       <c r="B49" s="137"/>
-      <c r="BN49" s="91"/>
-      <c r="BO49" s="91"/>
+      <c r="G49" s="154"/>
+      <c r="Q49" s="154"/>
+      <c r="X49" s="154"/>
+      <c r="AR49" s="154"/>
+      <c r="BI49" s="154"/>
+      <c r="BS49" s="91"/>
+      <c r="BT49" s="91"/>
       <c r="CY49" s="138"/>
       <c r="CZ49" s="20"/>
     </row>
@@ -3496,8 +3763,13 @@
         <v>26</v>
       </c>
       <c r="B50" s="137"/>
-      <c r="BN50" s="91"/>
-      <c r="BO50" s="91"/>
+      <c r="G50" s="154"/>
+      <c r="Q50" s="154"/>
+      <c r="X50" s="154"/>
+      <c r="AR50" s="154"/>
+      <c r="BI50" s="154"/>
+      <c r="BS50" s="91"/>
+      <c r="BT50" s="91"/>
       <c r="CY50" s="138"/>
       <c r="CZ50" s="20"/>
     </row>
@@ -3506,6 +3778,11 @@
         <v>44</v>
       </c>
       <c r="B51" s="137"/>
+      <c r="G51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="X51" s="154"/>
+      <c r="AR51" s="154"/>
+      <c r="BI51" s="154"/>
       <c r="CY51" s="138"/>
       <c r="CZ51" s="20"/>
     </row>
@@ -3514,7 +3791,12 @@
         <v>0</v>
       </c>
       <c r="B52" s="137"/>
-      <c r="BP52" s="91"/>
+      <c r="G52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="X52" s="154"/>
+      <c r="AR52" s="154"/>
+      <c r="BI52" s="154"/>
+      <c r="BU52" s="91"/>
       <c r="CY52" s="138"/>
       <c r="CZ52" s="20"/>
     </row>
@@ -3525,11 +3807,16 @@
       <c r="B53" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="BQ53" s="150"/>
-      <c r="BR53" s="150"/>
-      <c r="BS53" s="150"/>
-      <c r="BT53" s="150"/>
-      <c r="BU53" s="150"/>
+      <c r="G53" s="155"/>
+      <c r="Q53" s="155"/>
+      <c r="X53" s="155"/>
+      <c r="AR53" s="155"/>
+      <c r="BI53" s="155"/>
+      <c r="BV53" s="148"/>
+      <c r="BW53" s="148"/>
+      <c r="BX53" s="148"/>
+      <c r="BY53" s="148"/>
+      <c r="BZ53" s="148"/>
       <c r="CY53" s="140"/>
       <c r="CZ53" s="62"/>
     </row>
@@ -3538,6 +3825,11 @@
         <v>51</v>
       </c>
       <c r="B54" s="141"/>
+      <c r="G54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="X54" s="156"/>
+      <c r="AR54" s="156"/>
+      <c r="BI54" s="156"/>
       <c r="CW54" s="70"/>
       <c r="CY54" s="142"/>
       <c r="CZ54" s="65"/>
@@ -3545,13 +3837,17 @@
     <row r="55" spans="1:104" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="143"/>
+      <c r="G55" s="157"/>
+      <c r="Q55" s="157"/>
+      <c r="X55" s="157"/>
+      <c r="AR55" s="157"/>
+      <c r="BI55" s="157"/>
       <c r="CY55" s="144"/>
       <c r="CZ55" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="BG44:BH44"/>
+  <mergeCells count="1">
+    <mergeCell ref="BL44:BM44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/cronograma.xlsx
+++ b/documentos/cronograma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -233,9 +233,6 @@
     <t>BD - NoSQL</t>
   </si>
   <si>
-    <t>ADO.NET</t>
-  </si>
-  <si>
     <t>EFCore</t>
   </si>
   <si>
@@ -255,6 +252,27 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>ADO.NET, Repository</t>
+  </si>
+  <si>
+    <t>Controller, Postman, Swagger</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>REACT</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Introdução ao Segundo Semestre</t>
+  </si>
+  <si>
+    <t>Introdução a BD Relacional</t>
   </si>
 </sst>
 </file>
@@ -923,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1053,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1066,9 +1081,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1141,9 +1153,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,6 +1167,33 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2454,489 +2490,493 @@
   <dimension ref="A1:CZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF23" sqref="AF23"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="145"/>
+    <col min="2" max="2" width="8.28515625" style="143"/>
     <col min="3" max="6" width="8.28515625" style="10"/>
-    <col min="7" max="7" width="8.28515625" style="154"/>
+    <col min="7" max="7" width="8.28515625" style="151"/>
     <col min="8" max="16" width="8.28515625" style="10"/>
-    <col min="17" max="17" width="8.28515625" style="154"/>
+    <col min="17" max="17" width="8.28515625" style="151"/>
     <col min="18" max="23" width="8.28515625" style="10"/>
-    <col min="24" max="24" width="8.28515625" style="154"/>
-    <col min="25" max="43" width="8.28515625" style="10"/>
-    <col min="44" max="44" width="8.28515625" style="154"/>
+    <col min="24" max="24" width="8.28515625" style="151"/>
+    <col min="25" max="28" width="8.28515625" style="10"/>
+    <col min="29" max="29" width="8.28515625" style="151"/>
+    <col min="30" max="43" width="8.28515625" style="10"/>
+    <col min="44" max="44" width="8.28515625" style="151"/>
     <col min="45" max="60" width="8.28515625" style="10"/>
-    <col min="61" max="61" width="8.28515625" style="154"/>
-    <col min="62" max="102" width="8.28515625" style="10"/>
-    <col min="103" max="103" width="8.28515625" style="146"/>
+    <col min="61" max="61" width="8.28515625" style="151"/>
+    <col min="62" max="65" width="8.28515625" style="10"/>
+    <col min="66" max="66" width="8.28515625" style="151"/>
+    <col min="67" max="102" width="8.28515625" style="10"/>
+    <col min="103" max="103" width="8.28515625" style="144"/>
     <col min="104" max="104" width="8.28515625" style="21"/>
     <col min="105" max="16384" width="8.28515625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="151"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="159"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="105"/>
-      <c r="BB1" s="105"/>
-      <c r="BC1" s="105"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="105"/>
-      <c r="BF1" s="105"/>
-      <c r="BG1" s="105"/>
-      <c r="BH1" s="105"/>
-      <c r="BI1" s="159"/>
-      <c r="BJ1" s="105"/>
-      <c r="BK1" s="105"/>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="105"/>
-      <c r="BO1" s="105"/>
-      <c r="BP1" s="105"/>
-      <c r="BQ1" s="105"/>
-      <c r="BR1" s="105"/>
-      <c r="BS1" s="105"/>
-      <c r="BT1" s="105"/>
-      <c r="BU1" s="105"/>
-      <c r="BV1" s="105"/>
-      <c r="BW1" s="105"/>
-      <c r="BX1" s="105"/>
-      <c r="BY1" s="105"/>
-      <c r="BZ1" s="105"/>
-      <c r="CA1" s="105"/>
-      <c r="CB1" s="105"/>
-      <c r="CC1" s="105"/>
-      <c r="CD1" s="105"/>
-      <c r="CE1" s="105"/>
-      <c r="CF1" s="105"/>
-      <c r="CG1" s="105"/>
-      <c r="CH1" s="105"/>
-      <c r="CI1" s="105"/>
-      <c r="CJ1" s="105"/>
-      <c r="CK1" s="105"/>
-      <c r="CL1" s="105"/>
-      <c r="CM1" s="105"/>
-      <c r="CN1" s="105"/>
-      <c r="CO1" s="105"/>
-      <c r="CP1" s="105"/>
-      <c r="CQ1" s="105"/>
-      <c r="CR1" s="105"/>
-      <c r="CS1" s="105"/>
-      <c r="CT1" s="105"/>
-      <c r="CU1" s="105"/>
-      <c r="CV1" s="105"/>
-      <c r="CW1" s="105"/>
-      <c r="CX1" s="104"/>
-      <c r="CY1" s="106"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
+      <c r="AH1" s="103"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="103"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="103"/>
+      <c r="AO1" s="103"/>
+      <c r="AP1" s="103"/>
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="156"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
+      <c r="AV1" s="103"/>
+      <c r="AW1" s="103"/>
+      <c r="AX1" s="103"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
+      <c r="BC1" s="103"/>
+      <c r="BD1" s="103"/>
+      <c r="BE1" s="103"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
+      <c r="BH1" s="103"/>
+      <c r="BI1" s="156"/>
+      <c r="BJ1" s="103"/>
+      <c r="BK1" s="103"/>
+      <c r="BL1" s="103"/>
+      <c r="BM1" s="103"/>
+      <c r="BN1" s="156"/>
+      <c r="BO1" s="103"/>
+      <c r="BP1" s="103"/>
+      <c r="BQ1" s="103"/>
+      <c r="BR1" s="103"/>
+      <c r="BS1" s="103"/>
+      <c r="BT1" s="103"/>
+      <c r="BU1" s="103"/>
+      <c r="BV1" s="103"/>
+      <c r="BW1" s="103"/>
+      <c r="BX1" s="103"/>
+      <c r="BY1" s="103"/>
+      <c r="BZ1" s="103"/>
+      <c r="CA1" s="103"/>
+      <c r="CB1" s="103"/>
+      <c r="CC1" s="103"/>
+      <c r="CD1" s="103"/>
+      <c r="CE1" s="103"/>
+      <c r="CF1" s="103"/>
+      <c r="CG1" s="103"/>
+      <c r="CH1" s="103"/>
+      <c r="CI1" s="103"/>
+      <c r="CJ1" s="103"/>
+      <c r="CK1" s="103"/>
+      <c r="CL1" s="103"/>
+      <c r="CM1" s="103"/>
+      <c r="CN1" s="103"/>
+      <c r="CO1" s="103"/>
+      <c r="CP1" s="103"/>
+      <c r="CQ1" s="103"/>
+      <c r="CR1" s="103"/>
+      <c r="CS1" s="103"/>
+      <c r="CT1" s="103"/>
+      <c r="CU1" s="103"/>
+      <c r="CV1" s="103"/>
+      <c r="CW1" s="103"/>
+      <c r="CX1" s="102"/>
+      <c r="CY1" s="104"/>
     </row>
     <row r="2" spans="1:104" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="105">
         <v>43853</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="106">
         <v>43854</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="106">
         <v>43857</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="106">
         <v>43858</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="106">
         <v>43859</v>
       </c>
-      <c r="G2" s="152">
+      <c r="G2" s="149">
         <v>43860</v>
       </c>
-      <c r="H2" s="108">
+      <c r="H2" s="106">
         <v>43861</v>
       </c>
-      <c r="I2" s="108">
+      <c r="I2" s="106">
         <v>43864</v>
       </c>
-      <c r="J2" s="108">
+      <c r="J2" s="106">
         <v>43865</v>
       </c>
-      <c r="K2" s="108">
+      <c r="K2" s="106">
         <v>43866</v>
       </c>
-      <c r="L2" s="108">
+      <c r="L2" s="106">
         <v>43867</v>
       </c>
-      <c r="M2" s="108">
+      <c r="M2" s="106">
         <v>43868</v>
       </c>
-      <c r="N2" s="108">
+      <c r="N2" s="106">
         <v>43871</v>
       </c>
-      <c r="O2" s="108">
+      <c r="O2" s="106">
         <v>43872</v>
       </c>
-      <c r="P2" s="108">
+      <c r="P2" s="106">
         <v>43873</v>
       </c>
-      <c r="Q2" s="152">
+      <c r="Q2" s="149">
         <v>43874</v>
       </c>
-      <c r="R2" s="108">
+      <c r="R2" s="106">
         <v>43875</v>
       </c>
-      <c r="S2" s="108">
+      <c r="S2" s="106">
         <v>43878</v>
       </c>
-      <c r="T2" s="108">
+      <c r="T2" s="106">
         <v>43879</v>
       </c>
-      <c r="U2" s="108">
+      <c r="U2" s="106">
         <v>43880</v>
       </c>
-      <c r="V2" s="108">
+      <c r="V2" s="106">
         <v>43881</v>
       </c>
-      <c r="W2" s="108">
+      <c r="W2" s="106">
         <v>43882</v>
       </c>
-      <c r="X2" s="152">
+      <c r="X2" s="149">
         <v>43888</v>
       </c>
-      <c r="Y2" s="108">
+      <c r="Y2" s="106">
         <v>43889</v>
       </c>
-      <c r="Z2" s="108">
+      <c r="Z2" s="106">
         <v>43892</v>
       </c>
-      <c r="AA2" s="108">
+      <c r="AA2" s="106">
         <v>43893</v>
       </c>
-      <c r="AB2" s="108">
+      <c r="AB2" s="106">
         <v>43894</v>
       </c>
-      <c r="AC2" s="108">
-        <v>43895</v>
-      </c>
-      <c r="AD2" s="108">
+      <c r="AC2" s="159">
+        <v>43529</v>
+      </c>
+      <c r="AD2" s="106">
         <v>43896</v>
       </c>
-      <c r="AE2" s="108">
+      <c r="AE2" s="106">
         <v>43899</v>
       </c>
-      <c r="AF2" s="108">
+      <c r="AF2" s="106">
         <v>43900</v>
       </c>
-      <c r="AG2" s="108">
+      <c r="AG2" s="106">
         <v>43901</v>
       </c>
-      <c r="AH2" s="108">
+      <c r="AH2" s="106">
         <v>43902</v>
       </c>
-      <c r="AI2" s="108">
+      <c r="AI2" s="106">
         <v>43903</v>
       </c>
-      <c r="AJ2" s="108">
+      <c r="AJ2" s="106">
         <v>43906</v>
       </c>
-      <c r="AK2" s="108">
+      <c r="AK2" s="106">
         <v>43907</v>
       </c>
-      <c r="AL2" s="108">
+      <c r="AL2" s="106">
         <v>43908</v>
       </c>
-      <c r="AM2" s="108">
+      <c r="AM2" s="106">
         <v>43909</v>
       </c>
-      <c r="AN2" s="108">
+      <c r="AN2" s="106">
         <v>43910</v>
       </c>
-      <c r="AO2" s="108">
+      <c r="AO2" s="106">
         <v>43913</v>
       </c>
-      <c r="AP2" s="108">
+      <c r="AP2" s="106">
         <v>43914</v>
       </c>
-      <c r="AQ2" s="108">
+      <c r="AQ2" s="106">
         <v>43915</v>
       </c>
-      <c r="AR2" s="152">
+      <c r="AR2" s="149">
         <v>43916</v>
       </c>
-      <c r="AS2" s="108">
+      <c r="AS2" s="106">
         <v>43917</v>
       </c>
-      <c r="AT2" s="108">
+      <c r="AT2" s="106">
         <v>43920</v>
       </c>
-      <c r="AU2" s="108">
+      <c r="AU2" s="106">
         <v>43921</v>
       </c>
-      <c r="AV2" s="108">
+      <c r="AV2" s="106">
         <v>43922</v>
       </c>
-      <c r="AW2" s="108">
+      <c r="AW2" s="106">
         <v>43923</v>
       </c>
-      <c r="AX2" s="108">
+      <c r="AX2" s="106">
         <v>43924</v>
       </c>
-      <c r="AY2" s="108">
+      <c r="AY2" s="106">
         <v>43927</v>
       </c>
-      <c r="AZ2" s="108">
+      <c r="AZ2" s="106">
         <v>43928</v>
       </c>
-      <c r="BA2" s="108">
+      <c r="BA2" s="106">
         <v>43929</v>
       </c>
-      <c r="BB2" s="108">
+      <c r="BB2" s="106">
         <v>43930</v>
       </c>
-      <c r="BC2" s="108">
+      <c r="BC2" s="106">
         <v>43934</v>
       </c>
-      <c r="BD2" s="108">
+      <c r="BD2" s="106">
         <v>43935</v>
       </c>
-      <c r="BE2" s="108">
+      <c r="BE2" s="106">
         <v>43936</v>
       </c>
-      <c r="BF2" s="108">
+      <c r="BF2" s="106">
         <v>43937</v>
       </c>
-      <c r="BG2" s="108">
+      <c r="BG2" s="106">
         <v>43938</v>
       </c>
-      <c r="BH2" s="108">
+      <c r="BH2" s="106">
         <v>43943</v>
       </c>
-      <c r="BI2" s="152">
+      <c r="BI2" s="149">
         <v>43944</v>
       </c>
-      <c r="BJ2" s="108">
+      <c r="BJ2" s="106">
         <v>43945</v>
       </c>
-      <c r="BK2" s="108">
+      <c r="BK2" s="106">
         <v>43948</v>
       </c>
-      <c r="BL2" s="108">
+      <c r="BL2" s="106">
         <v>43949</v>
       </c>
-      <c r="BM2" s="108">
+      <c r="BM2" s="106">
         <v>43950</v>
       </c>
-      <c r="BN2" s="108">
+      <c r="BN2" s="149">
         <v>43951</v>
       </c>
-      <c r="BO2" s="108">
+      <c r="BO2" s="106">
         <v>43955</v>
       </c>
-      <c r="BP2" s="108">
+      <c r="BP2" s="106">
         <v>43956</v>
       </c>
-      <c r="BQ2" s="108">
+      <c r="BQ2" s="106">
         <v>43957</v>
       </c>
-      <c r="BR2" s="108">
+      <c r="BR2" s="106">
         <v>43958</v>
       </c>
-      <c r="BS2" s="108">
+      <c r="BS2" s="106">
         <v>43959</v>
       </c>
-      <c r="BT2" s="108">
+      <c r="BT2" s="106">
         <v>43962</v>
       </c>
-      <c r="BU2" s="108">
+      <c r="BU2" s="106">
         <v>43963</v>
       </c>
-      <c r="BV2" s="108">
+      <c r="BV2" s="106">
         <v>43964</v>
       </c>
-      <c r="BW2" s="108">
+      <c r="BW2" s="106">
         <v>43965</v>
       </c>
-      <c r="BX2" s="108">
+      <c r="BX2" s="106">
         <v>43966</v>
       </c>
-      <c r="BY2" s="108">
+      <c r="BY2" s="106">
         <v>43969</v>
       </c>
-      <c r="BZ2" s="108">
+      <c r="BZ2" s="106">
         <v>43970</v>
       </c>
-      <c r="CA2" s="108">
+      <c r="CA2" s="106">
         <v>43971</v>
       </c>
-      <c r="CB2" s="108">
+      <c r="CB2" s="106">
         <v>43972</v>
       </c>
-      <c r="CC2" s="108">
+      <c r="CC2" s="106">
         <v>43973</v>
       </c>
-      <c r="CD2" s="108">
+      <c r="CD2" s="106">
         <v>43976</v>
       </c>
-      <c r="CE2" s="108">
+      <c r="CE2" s="106">
         <v>43977</v>
       </c>
-      <c r="CF2" s="108">
+      <c r="CF2" s="106">
         <v>43978</v>
       </c>
-      <c r="CG2" s="108">
+      <c r="CG2" s="106">
         <v>43979</v>
       </c>
-      <c r="CH2" s="108">
+      <c r="CH2" s="106">
         <v>43980</v>
       </c>
-      <c r="CI2" s="108">
+      <c r="CI2" s="106">
         <v>43983</v>
       </c>
-      <c r="CJ2" s="108">
+      <c r="CJ2" s="106">
         <v>43984</v>
       </c>
-      <c r="CK2" s="108">
+      <c r="CK2" s="106">
         <v>43985</v>
       </c>
-      <c r="CL2" s="108">
+      <c r="CL2" s="106">
         <v>43986</v>
       </c>
-      <c r="CM2" s="108">
+      <c r="CM2" s="106">
         <v>43987</v>
       </c>
-      <c r="CN2" s="108">
+      <c r="CN2" s="106">
         <v>43990</v>
       </c>
-      <c r="CO2" s="108">
+      <c r="CO2" s="106">
         <v>43991</v>
       </c>
-      <c r="CP2" s="108">
+      <c r="CP2" s="106">
         <v>43992</v>
       </c>
-      <c r="CQ2" s="108">
+      <c r="CQ2" s="106">
         <v>43997</v>
       </c>
-      <c r="CR2" s="108">
+      <c r="CR2" s="106">
         <v>43998</v>
       </c>
-      <c r="CS2" s="108">
+      <c r="CS2" s="106">
         <v>43999</v>
       </c>
-      <c r="CT2" s="108">
+      <c r="CT2" s="106">
         <v>44000</v>
       </c>
-      <c r="CU2" s="108">
+      <c r="CU2" s="106">
         <v>44001</v>
       </c>
-      <c r="CV2" s="108">
+      <c r="CV2" s="106">
         <v>44004</v>
       </c>
-      <c r="CW2" s="108">
+      <c r="CW2" s="106">
         <v>44005</v>
       </c>
       <c r="CX2" s="68">
         <v>44000</v>
       </c>
-      <c r="CY2" s="109">
+      <c r="CY2" s="107">
         <v>44001</v>
       </c>
-      <c r="CZ2" s="100"/>
+      <c r="CZ2" s="98"/>
     </row>
     <row r="3" spans="1:104" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="110"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="87"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="87"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
-      <c r="Q3" s="158"/>
+      <c r="Q3" s="155"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
       <c r="W3" s="31"/>
-      <c r="X3" s="158"/>
+      <c r="X3" s="155"/>
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="31"/>
       <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="AC3" s="155"/>
       <c r="AD3" s="31"/>
       <c r="AE3" s="31"/>
       <c r="AF3" s="31"/>
@@ -2951,7 +2991,7 @@
       <c r="AO3" s="31"/>
       <c r="AP3" s="31"/>
       <c r="AQ3" s="31"/>
-      <c r="AR3" s="158"/>
+      <c r="AR3" s="31"/>
       <c r="AS3" s="31"/>
       <c r="AT3" s="31"/>
       <c r="AU3" s="31"/>
@@ -2968,12 +3008,12 @@
       <c r="BF3" s="31"/>
       <c r="BG3" s="31"/>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="158"/>
+      <c r="BI3" s="31"/>
       <c r="BJ3" s="31"/>
       <c r="BK3" s="31"/>
       <c r="BL3" s="31"/>
       <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
+      <c r="BN3" s="155"/>
       <c r="BO3" s="31"/>
       <c r="BP3" s="31"/>
       <c r="BQ3" s="31"/>
@@ -3009,846 +3049,892 @@
       <c r="CU3" s="31"/>
       <c r="CV3" s="31"/>
       <c r="CW3" s="31"/>
-      <c r="CY3" s="111"/>
-      <c r="CZ3" s="101"/>
+      <c r="CY3" s="109"/>
+      <c r="CZ3" s="99"/>
     </row>
     <row r="4" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="Q4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="CY4" s="113"/>
+      <c r="B4" s="110"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="Q4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="BN4" s="151"/>
+      <c r="CY4" s="111"/>
       <c r="CZ4" s="16"/>
     </row>
     <row r="5" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="Q5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="AR5" s="154"/>
-      <c r="BI5" s="154"/>
-      <c r="CY5" s="113"/>
+      <c r="B5" s="110"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="Q5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="BN5" s="151"/>
+      <c r="CY5" s="111"/>
       <c r="CZ5" s="16"/>
     </row>
     <row r="6" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="Q6" s="154"/>
-      <c r="X6" s="154"/>
-      <c r="AR6" s="154"/>
-      <c r="BI6" s="154"/>
-      <c r="CY6" s="113"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="Q6" s="151"/>
+      <c r="X6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="BN6" s="151"/>
+      <c r="CY6" s="111"/>
       <c r="CZ6" s="16"/>
     </row>
     <row r="7" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="E7" s="85"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="Q7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="AR7" s="154"/>
-      <c r="BI7" s="154"/>
-      <c r="CY7" s="113"/>
+      <c r="B7" s="112"/>
+      <c r="E7" s="84"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="Q7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="AC7" s="151"/>
+      <c r="BN7" s="151"/>
+      <c r="CY7" s="111"/>
       <c r="CZ7" s="16"/>
     </row>
     <row r="8" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="Q8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="AR8" s="154"/>
-      <c r="BI8" s="154"/>
-      <c r="CY8" s="113"/>
+      <c r="B8" s="112"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="Q8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="BN8" s="151"/>
+      <c r="CY8" s="111"/>
       <c r="CZ8" s="16"/>
     </row>
     <row r="9" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="Q9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="AR9" s="154"/>
-      <c r="BI9" s="154"/>
-      <c r="CY9" s="113"/>
+      <c r="B9" s="112"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="Q9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="BN9" s="151"/>
+      <c r="CY9" s="111"/>
       <c r="CZ9" s="16"/>
     </row>
     <row r="10" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="Q10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="AR10" s="154"/>
-      <c r="BI10" s="154"/>
-      <c r="CY10" s="113"/>
+      <c r="B10" s="112"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="Q10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="BN10" s="151"/>
+      <c r="CY10" s="111"/>
       <c r="CZ10" s="16"/>
     </row>
     <row r="11" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="Q11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="AR11" s="154"/>
-      <c r="BI11" s="154"/>
-      <c r="CY11" s="113"/>
+      <c r="B11" s="112"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="Q11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="BN11" s="151"/>
+      <c r="CY11" s="111"/>
       <c r="CZ11" s="16"/>
     </row>
     <row r="12" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="Q12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="AR12" s="154"/>
-      <c r="BI12" s="154"/>
-      <c r="CY12" s="113"/>
+      <c r="B12" s="112"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="Q12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="BN12" s="151"/>
+      <c r="CY12" s="111"/>
       <c r="CZ12" s="16"/>
     </row>
     <row r="13" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="Q13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="AR13" s="154"/>
-      <c r="BI13" s="154"/>
-      <c r="CY13" s="113"/>
+      <c r="B13" s="112"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="Q13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="BN13" s="151"/>
+      <c r="CY13" s="111"/>
       <c r="CZ13" s="16"/>
     </row>
     <row r="14" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="Q14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="AR14" s="154"/>
-      <c r="BI14" s="154"/>
-      <c r="CY14" s="113"/>
+      <c r="B14" s="112"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="Q14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="BN14" s="151"/>
+      <c r="CY14" s="111"/>
       <c r="CZ14" s="16"/>
     </row>
     <row r="15" spans="1:104" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="Q15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="AR15" s="154"/>
-      <c r="BI15" s="154"/>
-      <c r="CY15" s="113"/>
+      <c r="B15" s="112"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="Q15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="BN15" s="151"/>
+      <c r="CY15" s="111"/>
       <c r="CZ15" s="16"/>
     </row>
     <row r="16" spans="1:104" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="155"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="AR16" s="155"/>
-      <c r="BI16" s="155"/>
-      <c r="CY16" s="116"/>
+      <c r="B16" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="152"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="152"/>
+      <c r="X16" s="152"/>
+      <c r="AC16" s="152"/>
+      <c r="BN16" s="152"/>
+      <c r="CY16" s="114"/>
       <c r="CZ16" s="35"/>
     </row>
     <row r="17" spans="1:104" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="G17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="96"/>
-      <c r="AR17" s="153"/>
-      <c r="BI17" s="153"/>
-      <c r="CY17" s="118"/>
+      <c r="B17" s="115"/>
+      <c r="G17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Z17" s="94"/>
+      <c r="AC17" s="150"/>
+      <c r="AD17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="BN17" s="150"/>
+      <c r="CY17" s="116"/>
       <c r="CZ17" s="38"/>
     </row>
     <row r="18" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="G18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="92"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="96"/>
-      <c r="AR18" s="154"/>
-      <c r="BI18" s="154"/>
-      <c r="CY18" s="120"/>
+      <c r="B18" s="117"/>
+      <c r="G18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="90"/>
+      <c r="X18" s="151"/>
+      <c r="Z18" s="94"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="BN18" s="151"/>
+      <c r="CY18" s="118"/>
       <c r="CZ18" s="17"/>
     </row>
     <row r="19" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="G19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="92"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="96"/>
-      <c r="AR19" s="154"/>
-      <c r="BI19" s="154"/>
-      <c r="CY19" s="120"/>
+      <c r="B19" s="117"/>
+      <c r="G19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="90"/>
+      <c r="X19" s="151"/>
+      <c r="Z19" s="94"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="BN19" s="151"/>
+      <c r="CY19" s="118"/>
       <c r="CZ19" s="17"/>
     </row>
     <row r="20" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="G20" s="154"/>
-      <c r="Q20" s="154"/>
+      <c r="B20" s="117"/>
+      <c r="G20" s="151"/>
+      <c r="Q20" s="151"/>
       <c r="R20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="96"/>
-      <c r="AR20" s="154"/>
-      <c r="BI20" s="154"/>
-      <c r="CY20" s="120"/>
+        <v>69</v>
+      </c>
+      <c r="X20" s="151"/>
+      <c r="Z20" s="94"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="BN20" s="151"/>
+      <c r="CY20" s="118"/>
       <c r="CZ20" s="17"/>
     </row>
     <row r="21" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="G21" s="154"/>
-      <c r="Q21" s="154"/>
+      <c r="B21" s="117"/>
+      <c r="G21" s="151"/>
+      <c r="Q21" s="151"/>
       <c r="R21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="96"/>
-      <c r="AR21" s="154"/>
-      <c r="BI21" s="154"/>
-      <c r="CY21" s="120"/>
+        <v>69</v>
+      </c>
+      <c r="X21" s="151"/>
+      <c r="Z21" s="94"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="BN21" s="151"/>
+      <c r="CY21" s="118"/>
       <c r="CZ21" s="17"/>
     </row>
     <row r="22" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="G22" s="154"/>
-      <c r="Q22" s="154"/>
+      <c r="B22" s="117"/>
+      <c r="G22" s="151"/>
+      <c r="Q22" s="151"/>
       <c r="R22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="96"/>
-      <c r="AR22" s="154"/>
-      <c r="BI22" s="154"/>
-      <c r="CY22" s="120"/>
+        <v>70</v>
+      </c>
+      <c r="X22" s="151"/>
+      <c r="Z22" s="94"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="BN22" s="151"/>
+      <c r="CY22" s="118"/>
       <c r="CZ22" s="17"/>
     </row>
     <row r="23" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="G23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="S23" s="93" t="s">
+      <c r="B23" s="117"/>
+      <c r="G23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="T23" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="96"/>
-      <c r="AR23" s="154"/>
-      <c r="BI23" s="154"/>
-      <c r="CY23" s="120"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="94"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="BN23" s="151"/>
+      <c r="CY23" s="118"/>
       <c r="CZ23" s="17"/>
     </row>
     <row r="24" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="G24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AR24" s="154"/>
-      <c r="BI24" s="154"/>
-      <c r="CY24" s="120"/>
+      <c r="B24" s="117"/>
+      <c r="G24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="BN24" s="151"/>
+      <c r="CY24" s="118"/>
       <c r="CZ24" s="17"/>
     </row>
     <row r="25" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="G25" s="154"/>
-      <c r="Q25" s="154"/>
+      <c r="B25" s="117"/>
+      <c r="G25" s="151"/>
+      <c r="Q25" s="151"/>
       <c r="R25" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="96"/>
-      <c r="AR25" s="154"/>
-      <c r="BI25" s="154"/>
-      <c r="CY25" s="120"/>
+        <v>69</v>
+      </c>
+      <c r="X25" s="151"/>
+      <c r="Z25" s="94"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="BN25" s="151"/>
+      <c r="CY25" s="118"/>
       <c r="CZ25" s="17"/>
     </row>
     <row r="26" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="G26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="96"/>
-      <c r="AR26" s="154"/>
-      <c r="BI26" s="154"/>
-      <c r="CY26" s="120"/>
+      <c r="B26" s="117"/>
+      <c r="G26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Z26" s="94"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="BN26" s="151"/>
+      <c r="CY26" s="118"/>
       <c r="CZ26" s="17"/>
     </row>
     <row r="27" spans="1:104" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="G27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="96"/>
-      <c r="AR27" s="154"/>
-      <c r="BI27" s="154"/>
-      <c r="CY27" s="120"/>
+      <c r="B27" s="117"/>
+      <c r="G27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Z27" s="94"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="BN27" s="151"/>
+      <c r="CY27" s="118"/>
       <c r="CZ27" s="17"/>
     </row>
     <row r="28" spans="1:104" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="97"/>
-      <c r="AR28" s="155"/>
-      <c r="BI28" s="155"/>
-      <c r="CY28" s="122"/>
+      <c r="B28" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="X28" s="152"/>
+      <c r="AC28" s="152"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="95"/>
+      <c r="AM28" s="95"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="95"/>
+      <c r="BN28" s="152"/>
+      <c r="CY28" s="120"/>
       <c r="CZ28" s="41"/>
     </row>
     <row r="29" spans="1:104" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="G29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="AR29" s="153"/>
-      <c r="BI29" s="153"/>
-      <c r="CY29" s="124"/>
+      <c r="B29" s="121"/>
+      <c r="G29" s="150"/>
+      <c r="Q29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="AC29" s="150"/>
+      <c r="AT29" s="96"/>
+      <c r="AU29" s="13"/>
+      <c r="BN29" s="150"/>
+      <c r="CY29" s="122"/>
       <c r="CZ29" s="44"/>
     </row>
     <row r="30" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="G30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="AJ30" s="98"/>
-      <c r="AR30" s="154"/>
-      <c r="BI30" s="154"/>
-      <c r="CY30" s="126"/>
+      <c r="B30" s="123"/>
+      <c r="G30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AP30" s="96"/>
+      <c r="AT30" s="96"/>
+      <c r="BN30" s="151"/>
+      <c r="CY30" s="124"/>
       <c r="CZ30" s="18"/>
     </row>
     <row r="31" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="G31" s="154"/>
-      <c r="Q31" s="154"/>
-      <c r="X31" s="154"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="98"/>
-      <c r="AR31" s="154"/>
-      <c r="BI31" s="154"/>
-      <c r="CY31" s="126"/>
+      <c r="B31" s="123"/>
+      <c r="G31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AP31" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ31" s="96"/>
+      <c r="AR31" s="96"/>
+      <c r="AS31" s="96"/>
+      <c r="AT31" s="96"/>
+      <c r="AU31" s="96"/>
+      <c r="BN31" s="151"/>
+      <c r="CY31" s="124"/>
       <c r="CZ31" s="18"/>
     </row>
     <row r="32" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="G32" s="154"/>
-      <c r="Q32" s="154"/>
-      <c r="X32" s="154"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="98"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="154"/>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
-      <c r="BI32" s="154"/>
-      <c r="CY32" s="126"/>
+      <c r="B32" s="123"/>
+      <c r="G32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AT32" s="96"/>
+      <c r="AV32" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW32" s="96"/>
+      <c r="AX32" s="96"/>
+      <c r="AY32" s="96"/>
+      <c r="AZ32" s="96"/>
+      <c r="BA32" s="96"/>
+      <c r="BB32" s="96"/>
+      <c r="BN32" s="151"/>
+      <c r="CY32" s="124"/>
       <c r="CZ32" s="18"/>
     </row>
     <row r="33" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="125"/>
-      <c r="G33" s="154"/>
-      <c r="Q33" s="154"/>
-      <c r="X33" s="154"/>
-      <c r="AO33" s="98"/>
-      <c r="AP33" s="98"/>
-      <c r="AQ33" s="98"/>
-      <c r="AR33" s="154"/>
-      <c r="AS33" s="98"/>
-      <c r="AT33" s="98"/>
-      <c r="AU33" s="98"/>
-      <c r="BI33" s="154"/>
-      <c r="CY33" s="126"/>
+      <c r="B33" s="123"/>
+      <c r="G33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AT33" s="96"/>
+      <c r="AV33" s="96"/>
+      <c r="AW33" s="96"/>
+      <c r="AX33" s="96"/>
+      <c r="AY33" s="96"/>
+      <c r="AZ33" s="96"/>
+      <c r="BA33" s="96"/>
+      <c r="BB33" s="96"/>
+      <c r="BN33" s="151"/>
+      <c r="CY33" s="124"/>
       <c r="CZ33" s="18"/>
     </row>
     <row r="34" spans="1:104" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="G34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="X34" s="154"/>
-      <c r="AR34" s="154"/>
-      <c r="AV34" s="98"/>
-      <c r="BI34" s="154"/>
-      <c r="CY34" s="126"/>
+      <c r="B34" s="123"/>
+      <c r="G34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="X34" s="151"/>
+      <c r="AC34" s="151"/>
+      <c r="AT34" s="96"/>
+      <c r="BN34" s="151"/>
+      <c r="CY34" s="124"/>
       <c r="CZ34" s="18"/>
     </row>
     <row r="35" spans="1:104" s="46" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="X35" s="155"/>
-      <c r="AR35" s="155"/>
-      <c r="AW35" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX35" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY35" s="88"/>
-      <c r="AZ35" s="88"/>
-      <c r="BA35" s="88"/>
-      <c r="BB35" s="88"/>
-      <c r="BC35" s="88"/>
-      <c r="BI35" s="155"/>
-      <c r="CY35" s="128"/>
+      <c r="B35" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="AC35" s="152"/>
+      <c r="BC35" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD35" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE35" s="86"/>
+      <c r="BF35" s="86"/>
+      <c r="BG35" s="86"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
+      <c r="BJ35" s="86"/>
+      <c r="BN35" s="152"/>
+      <c r="CY35" s="126"/>
       <c r="CZ35" s="47"/>
     </row>
     <row r="36" spans="1:104" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="G36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="AR36" s="153"/>
-      <c r="BI36" s="153"/>
-      <c r="CY36" s="130"/>
+      <c r="B36" s="127"/>
+      <c r="G36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="AC36" s="150"/>
+      <c r="BN36" s="150"/>
+      <c r="CY36" s="128"/>
       <c r="CZ36" s="50"/>
     </row>
     <row r="37" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="131"/>
-      <c r="G37" s="154"/>
-      <c r="Q37" s="154"/>
-      <c r="X37" s="154"/>
-      <c r="AR37" s="154"/>
-      <c r="BD37" s="90"/>
-      <c r="BI37" s="154"/>
-      <c r="CY37" s="132"/>
+      <c r="B37" s="129"/>
+      <c r="G37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="AC37" s="151"/>
+      <c r="BK37" s="88"/>
+      <c r="BN37" s="151"/>
+      <c r="CY37" s="130"/>
       <c r="CZ37" s="19"/>
     </row>
     <row r="38" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="131"/>
-      <c r="G38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="X38" s="154"/>
-      <c r="AR38" s="154"/>
-      <c r="BD38" s="90"/>
-      <c r="BI38" s="154"/>
-      <c r="CY38" s="132"/>
+      <c r="B38" s="129"/>
+      <c r="G38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="AC38" s="151"/>
+      <c r="BK38" s="88"/>
+      <c r="BN38" s="151"/>
+      <c r="CY38" s="130"/>
       <c r="CZ38" s="19"/>
     </row>
     <row r="39" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="131"/>
-      <c r="G39" s="154"/>
-      <c r="Q39" s="154"/>
-      <c r="X39" s="154"/>
-      <c r="AR39" s="154"/>
-      <c r="BG39" s="90"/>
-      <c r="BH39" s="90"/>
-      <c r="BI39" s="154"/>
-      <c r="BJ39" s="90"/>
-      <c r="BK39" s="90"/>
-      <c r="CY39" s="132"/>
+      <c r="B39" s="129"/>
+      <c r="G39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="X39" s="151"/>
+      <c r="AC39" s="151"/>
+      <c r="BN39" s="151"/>
+      <c r="BO39" s="88"/>
+      <c r="BP39" s="88"/>
+      <c r="BQ39" s="88"/>
+      <c r="BR39" s="88"/>
+      <c r="BS39" s="88"/>
+      <c r="CY39" s="130"/>
       <c r="CZ39" s="19"/>
     </row>
     <row r="40" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="G40" s="154"/>
-      <c r="Q40" s="154"/>
-      <c r="X40" s="154"/>
-      <c r="AR40" s="154"/>
-      <c r="BG40" s="90"/>
-      <c r="BI40" s="154"/>
-      <c r="CY40" s="132"/>
+      <c r="B40" s="129"/>
+      <c r="G40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="X40" s="151"/>
+      <c r="AC40" s="151"/>
+      <c r="BN40" s="151"/>
+      <c r="BO40" s="88"/>
+      <c r="CY40" s="130"/>
       <c r="CZ40" s="19"/>
     </row>
     <row r="41" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="G41" s="154"/>
-      <c r="Q41" s="154"/>
-      <c r="X41" s="154"/>
-      <c r="AR41" s="154"/>
-      <c r="BG41" s="90"/>
-      <c r="BI41" s="154"/>
-      <c r="CY41" s="132"/>
+      <c r="B41" s="129"/>
+      <c r="G41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="X41" s="151"/>
+      <c r="AC41" s="151"/>
+      <c r="BN41" s="151"/>
+      <c r="BO41" s="88"/>
+      <c r="CY41" s="130"/>
       <c r="CZ41" s="19"/>
     </row>
     <row r="42" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="G42" s="154"/>
-      <c r="Q42" s="154"/>
-      <c r="X42" s="154"/>
-      <c r="AR42" s="154"/>
-      <c r="BE42" s="90"/>
-      <c r="BI42" s="154"/>
-      <c r="CY42" s="132"/>
+      <c r="B42" s="129"/>
+      <c r="G42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="X42" s="151"/>
+      <c r="AC42" s="151"/>
+      <c r="BL42" s="88"/>
+      <c r="BN42" s="151"/>
+      <c r="CY42" s="130"/>
       <c r="CZ42" s="19"/>
     </row>
     <row r="43" spans="1:104" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="G43" s="154"/>
-      <c r="Q43" s="154"/>
-      <c r="X43" s="154"/>
-      <c r="AR43" s="154"/>
-      <c r="BF43" s="90"/>
-      <c r="BI43" s="154"/>
-      <c r="CY43" s="132"/>
+      <c r="B43" s="129"/>
+      <c r="G43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="X43" s="151"/>
+      <c r="AC43" s="151"/>
+      <c r="BM43" s="88"/>
+      <c r="BN43" s="151"/>
+      <c r="CY43" s="130"/>
       <c r="CZ43" s="19"/>
     </row>
     <row r="44" spans="1:104" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="155"/>
-      <c r="Q44" s="155"/>
-      <c r="X44" s="155"/>
-      <c r="AR44" s="155"/>
-      <c r="BI44" s="155"/>
-      <c r="BL44" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM44" s="150"/>
-      <c r="BN44" s="99"/>
-      <c r="BO44" s="99"/>
-      <c r="BP44" s="99"/>
-      <c r="BQ44" s="99"/>
-      <c r="CY44" s="134"/>
+      <c r="B44" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="152"/>
+      <c r="Q44" s="152"/>
+      <c r="X44" s="152"/>
+      <c r="AC44" s="152"/>
+      <c r="BN44" s="152"/>
+      <c r="BT44" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU44" s="147"/>
+      <c r="BV44" s="97"/>
+      <c r="BW44" s="97"/>
+      <c r="BX44" s="97"/>
+      <c r="BY44" s="97"/>
+      <c r="BZ44" s="97"/>
+      <c r="CY44" s="132"/>
       <c r="CZ44" s="53"/>
     </row>
     <row r="45" spans="1:104" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="G45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="AR45" s="153"/>
-      <c r="BI45" s="153"/>
-      <c r="CY45" s="136"/>
+      <c r="B45" s="133"/>
+      <c r="G45" s="150"/>
+      <c r="Q45" s="150"/>
+      <c r="X45" s="150"/>
+      <c r="AC45" s="150"/>
+      <c r="BN45" s="150"/>
+      <c r="CY45" s="134"/>
       <c r="CZ45" s="59"/>
     </row>
     <row r="46" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="137"/>
-      <c r="G46" s="154"/>
-      <c r="Q46" s="154"/>
-      <c r="X46" s="154"/>
-      <c r="AR46" s="154"/>
-      <c r="BI46" s="154"/>
-      <c r="BR46" s="147"/>
-      <c r="CY46" s="138"/>
+      <c r="B46" s="135"/>
+      <c r="G46" s="151"/>
+      <c r="Q46" s="151"/>
+      <c r="X46" s="151"/>
+      <c r="AC46" s="151"/>
+      <c r="BN46" s="151"/>
+      <c r="CA46" s="145"/>
+      <c r="CY46" s="136"/>
       <c r="CZ46" s="20"/>
     </row>
     <row r="47" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="137"/>
-      <c r="G47" s="154"/>
-      <c r="Q47" s="154"/>
-      <c r="X47" s="154"/>
-      <c r="AR47" s="154"/>
-      <c r="BI47" s="154"/>
-      <c r="BR47" s="91"/>
-      <c r="CY47" s="138"/>
+      <c r="B47" s="135"/>
+      <c r="G47" s="151"/>
+      <c r="Q47" s="151"/>
+      <c r="X47" s="151"/>
+      <c r="AC47" s="151"/>
+      <c r="BN47" s="151"/>
+      <c r="CA47" s="89"/>
+      <c r="CY47" s="136"/>
       <c r="CZ47" s="20"/>
     </row>
     <row r="48" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="137"/>
-      <c r="G48" s="154"/>
-      <c r="Q48" s="154"/>
-      <c r="X48" s="154"/>
-      <c r="AR48" s="154"/>
-      <c r="BI48" s="154"/>
-      <c r="CY48" s="138"/>
+      <c r="B48" s="135"/>
+      <c r="G48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="AC48" s="151"/>
+      <c r="BN48" s="151"/>
+      <c r="CY48" s="136"/>
       <c r="CZ48" s="20"/>
     </row>
     <row r="49" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="137"/>
-      <c r="G49" s="154"/>
-      <c r="Q49" s="154"/>
-      <c r="X49" s="154"/>
-      <c r="AR49" s="154"/>
-      <c r="BI49" s="154"/>
-      <c r="BS49" s="91"/>
-      <c r="BT49" s="91"/>
-      <c r="CY49" s="138"/>
+      <c r="B49" s="135"/>
+      <c r="G49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="AC49" s="151"/>
+      <c r="BN49" s="151"/>
+      <c r="CB49" s="89"/>
+      <c r="CC49" s="89"/>
+      <c r="CY49" s="136"/>
       <c r="CZ49" s="20"/>
     </row>
     <row r="50" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="137"/>
-      <c r="G50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="X50" s="154"/>
-      <c r="AR50" s="154"/>
-      <c r="BI50" s="154"/>
-      <c r="BS50" s="91"/>
-      <c r="BT50" s="91"/>
-      <c r="CY50" s="138"/>
+      <c r="B50" s="135"/>
+      <c r="G50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="AC50" s="151"/>
+      <c r="BN50" s="151"/>
+      <c r="CB50" s="89"/>
+      <c r="CC50" s="89"/>
+      <c r="CY50" s="136"/>
       <c r="CZ50" s="20"/>
     </row>
     <row r="51" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="137"/>
-      <c r="G51" s="154"/>
-      <c r="Q51" s="154"/>
-      <c r="X51" s="154"/>
-      <c r="AR51" s="154"/>
-      <c r="BI51" s="154"/>
-      <c r="CY51" s="138"/>
+      <c r="B51" s="135"/>
+      <c r="G51" s="151"/>
+      <c r="Q51" s="151"/>
+      <c r="X51" s="151"/>
+      <c r="AC51" s="151"/>
+      <c r="BN51" s="151"/>
+      <c r="CY51" s="136"/>
       <c r="CZ51" s="20"/>
     </row>
     <row r="52" spans="1:104" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="G52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="X52" s="154"/>
-      <c r="AR52" s="154"/>
-      <c r="BI52" s="154"/>
-      <c r="BU52" s="91"/>
-      <c r="CY52" s="138"/>
+      <c r="B52" s="135"/>
+      <c r="G52" s="151"/>
+      <c r="Q52" s="151"/>
+      <c r="X52" s="151"/>
+      <c r="AC52" s="151"/>
+      <c r="BN52" s="151"/>
+      <c r="CD52" s="89"/>
+      <c r="CY52" s="136"/>
       <c r="CZ52" s="20"/>
     </row>
     <row r="53" spans="1:104" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="139" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="X53" s="155"/>
-      <c r="AR53" s="155"/>
-      <c r="BI53" s="155"/>
-      <c r="BV53" s="148"/>
-      <c r="BW53" s="148"/>
-      <c r="BX53" s="148"/>
-      <c r="BY53" s="148"/>
-      <c r="BZ53" s="148"/>
-      <c r="CY53" s="140"/>
+      <c r="B53" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="X53" s="152"/>
+      <c r="AC53" s="152"/>
+      <c r="BN53" s="152"/>
+      <c r="CE53" s="146"/>
+      <c r="CF53" s="146"/>
+      <c r="CG53" s="146"/>
+      <c r="CH53" s="146"/>
+      <c r="CI53" s="146"/>
+      <c r="CY53" s="138"/>
       <c r="CZ53" s="62"/>
     </row>
     <row r="54" spans="1:104" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="G54" s="156"/>
-      <c r="Q54" s="156"/>
-      <c r="X54" s="156"/>
-      <c r="AR54" s="156"/>
-      <c r="BI54" s="156"/>
+      <c r="B54" s="139"/>
+      <c r="G54" s="153"/>
+      <c r="Q54" s="153"/>
+      <c r="X54" s="153"/>
+      <c r="AC54" s="153"/>
+      <c r="BN54" s="153"/>
       <c r="CW54" s="70"/>
-      <c r="CY54" s="142"/>
+      <c r="CY54" s="140"/>
       <c r="CZ54" s="65"/>
     </row>
     <row r="55" spans="1:104" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
-      <c r="B55" s="143"/>
-      <c r="G55" s="157"/>
-      <c r="Q55" s="157"/>
-      <c r="X55" s="157"/>
-      <c r="AR55" s="157"/>
-      <c r="BI55" s="157"/>
-      <c r="CY55" s="144"/>
+      <c r="B55" s="141"/>
+      <c r="G55" s="154"/>
+      <c r="Q55" s="154"/>
+      <c r="X55" s="154"/>
+      <c r="AC55" s="154"/>
+      <c r="AR55" s="154"/>
+      <c r="BI55" s="154"/>
+      <c r="BN55" s="154"/>
+      <c r="CY55" s="142"/>
       <c r="CZ55" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="BL44:BM44"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3859,7 +3945,7 @@
   <dimension ref="A1:CV150"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,7 +3959,7 @@
       <c r="A1" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="161" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="76" t="s">
@@ -3890,34 +3976,36 @@
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="83" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A4" s="82">
+    <row r="4" spans="1:100" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="81">
         <v>43853</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="72"/>
       <c r="H4" s="72"/>
       <c r="I4" s="72"/>
@@ -4014,147 +4102,149 @@
       <c r="CV4" s="72"/>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>43854</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="B5" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A6" s="82">
+      <c r="A6" s="81">
         <v>43857</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>43858</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A8" s="82">
+      <c r="A8" s="81">
         <v>43859</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+    </row>
+    <row r="9" spans="1:100" s="167" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="165">
         <v>43860</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A10" s="82">
+      <c r="A10" s="81">
         <v>43861</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>43864</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A12" s="82">
+      <c r="A12" s="81">
         <v>43865</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+      <c r="A13" s="81">
         <v>43866</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A14" s="82">
+      <c r="A14" s="81">
         <v>43867</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="81">
         <v>43868</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A16" s="82">
+      <c r="A16" s="81">
         <v>43871</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="82">
+      <c r="A17" s="81">
         <v>43872</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>43873</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="82">
+      <c r="A19" s="81">
         <v>43874</v>
       </c>
       <c r="B19" s="80"/>
@@ -4164,7 +4254,7 @@
       <c r="F19" s="80"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="82">
+      <c r="A20" s="81">
         <v>43875</v>
       </c>
       <c r="B20" s="80"/>
@@ -4174,7 +4264,7 @@
       <c r="F20" s="80"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="82">
+      <c r="A21" s="81">
         <v>43878</v>
       </c>
       <c r="B21" s="80"/>
@@ -4184,7 +4274,7 @@
       <c r="F21" s="80"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="82">
+      <c r="A22" s="81">
         <v>43879</v>
       </c>
       <c r="B22" s="80"/>
@@ -4194,7 +4284,7 @@
       <c r="F22" s="80"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="82">
+      <c r="A23" s="81">
         <v>43880</v>
       </c>
       <c r="B23" s="80"/>
@@ -4204,7 +4294,7 @@
       <c r="F23" s="80"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="82">
+      <c r="A24" s="81">
         <v>43881</v>
       </c>
       <c r="B24" s="80"/>
@@ -4214,7 +4304,7 @@
       <c r="F24" s="80"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="82">
+      <c r="A25" s="81">
         <v>43882</v>
       </c>
       <c r="B25" s="80"/>
@@ -4224,7 +4314,7 @@
       <c r="F25" s="80"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="82">
+      <c r="A26" s="81">
         <v>43888</v>
       </c>
       <c r="B26" s="80"/>
@@ -4234,7 +4324,7 @@
       <c r="F26" s="80"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
+      <c r="A27" s="81">
         <v>43889</v>
       </c>
       <c r="B27" s="80"/>
@@ -4244,7 +4334,7 @@
       <c r="F27" s="80"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="82">
+      <c r="A28" s="81">
         <v>43892</v>
       </c>
       <c r="B28" s="80"/>
@@ -4254,7 +4344,7 @@
       <c r="F28" s="80"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="82">
+      <c r="A29" s="81">
         <v>43893</v>
       </c>
       <c r="B29" s="80"/>
@@ -4264,7 +4354,7 @@
       <c r="F29" s="80"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="82">
+      <c r="A30" s="81">
         <v>43894</v>
       </c>
       <c r="B30" s="80"/>
@@ -4274,7 +4364,7 @@
       <c r="F30" s="80"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="82">
+      <c r="A31" s="81">
         <v>43895</v>
       </c>
       <c r="B31" s="80"/>
@@ -4284,7 +4374,7 @@
       <c r="F31" s="80"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="82">
+      <c r="A32" s="81">
         <v>43896</v>
       </c>
       <c r="B32" s="80"/>
@@ -4294,7 +4384,7 @@
       <c r="F32" s="80"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="82">
+      <c r="A33" s="81">
         <v>43899</v>
       </c>
       <c r="B33" s="80"/>
@@ -4304,7 +4394,7 @@
       <c r="F33" s="80"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="82">
+      <c r="A34" s="81">
         <v>43900</v>
       </c>
       <c r="B34" s="80"/>
@@ -4314,7 +4404,7 @@
       <c r="F34" s="80"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="82">
+      <c r="A35" s="81">
         <v>43901</v>
       </c>
       <c r="B35" s="80"/>
@@ -4324,7 +4414,7 @@
       <c r="F35" s="80"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="82">
+      <c r="A36" s="81">
         <v>43902</v>
       </c>
       <c r="B36" s="80"/>
@@ -4334,7 +4424,7 @@
       <c r="F36" s="80"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="82">
+      <c r="A37" s="81">
         <v>43903</v>
       </c>
       <c r="B37" s="80"/>
@@ -4344,7 +4434,7 @@
       <c r="F37" s="80"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="82">
+      <c r="A38" s="81">
         <v>43906</v>
       </c>
       <c r="B38" s="80"/>
@@ -4354,7 +4444,7 @@
       <c r="F38" s="80"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="82">
+      <c r="A39" s="81">
         <v>43907</v>
       </c>
       <c r="B39" s="80"/>
@@ -4364,7 +4454,7 @@
       <c r="F39" s="80"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="82">
+      <c r="A40" s="81">
         <v>43908</v>
       </c>
       <c r="B40" s="80"/>
@@ -4374,7 +4464,7 @@
       <c r="F40" s="80"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="82">
+      <c r="A41" s="81">
         <v>43909</v>
       </c>
       <c r="B41" s="80"/>
@@ -4384,7 +4474,7 @@
       <c r="F41" s="80"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="82">
+      <c r="A42" s="81">
         <v>43910</v>
       </c>
       <c r="B42" s="80"/>
@@ -4394,7 +4484,7 @@
       <c r="F42" s="80"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="82">
+      <c r="A43" s="81">
         <v>43913</v>
       </c>
       <c r="B43" s="80"/>
@@ -4404,7 +4494,7 @@
       <c r="F43" s="80"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="82">
+      <c r="A44" s="81">
         <v>43914</v>
       </c>
       <c r="B44" s="80"/>
@@ -4414,7 +4504,7 @@
       <c r="F44" s="80"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="82">
+      <c r="A45" s="81">
         <v>43915</v>
       </c>
       <c r="B45" s="80"/>
@@ -4424,7 +4514,7 @@
       <c r="F45" s="80"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="82">
+      <c r="A46" s="81">
         <v>43916</v>
       </c>
       <c r="B46" s="80"/>
@@ -4434,7 +4524,7 @@
       <c r="F46" s="80"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="82">
+      <c r="A47" s="81">
         <v>43917</v>
       </c>
       <c r="B47" s="80"/>
@@ -4444,7 +4534,7 @@
       <c r="F47" s="80"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="82">
+      <c r="A48" s="81">
         <v>43920</v>
       </c>
       <c r="B48" s="80"/>
@@ -4454,7 +4544,7 @@
       <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="82">
+      <c r="A49" s="81">
         <v>43921</v>
       </c>
       <c r="B49" s="80"/>
@@ -4464,7 +4554,7 @@
       <c r="F49" s="80"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="82">
+      <c r="A50" s="81">
         <v>43922</v>
       </c>
       <c r="B50" s="80"/>
@@ -4474,7 +4564,7 @@
       <c r="F50" s="80"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="82">
+      <c r="A51" s="81">
         <v>43923</v>
       </c>
       <c r="B51" s="80"/>
@@ -4484,7 +4574,7 @@
       <c r="F51" s="80"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="82">
+      <c r="A52" s="81">
         <v>43924</v>
       </c>
       <c r="B52" s="80"/>
@@ -4494,7 +4584,7 @@
       <c r="F52" s="80"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="82">
+      <c r="A53" s="81">
         <v>43927</v>
       </c>
       <c r="B53" s="80"/>
@@ -4504,7 +4594,7 @@
       <c r="F53" s="80"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="82">
+      <c r="A54" s="81">
         <v>43928</v>
       </c>
       <c r="B54" s="80"/>
@@ -4514,7 +4604,7 @@
       <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="82">
+      <c r="A55" s="81">
         <v>43929</v>
       </c>
       <c r="B55" s="80"/>
@@ -4524,7 +4614,7 @@
       <c r="F55" s="80"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="82">
+      <c r="A56" s="81">
         <v>43930</v>
       </c>
       <c r="B56" s="80"/>
@@ -4534,7 +4624,7 @@
       <c r="F56" s="80"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="82">
+      <c r="A57" s="81">
         <v>43934</v>
       </c>
       <c r="B57" s="80"/>
@@ -4544,7 +4634,7 @@
       <c r="F57" s="80"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="82">
+      <c r="A58" s="81">
         <v>43935</v>
       </c>
       <c r="B58" s="80"/>
@@ -4554,7 +4644,7 @@
       <c r="F58" s="80"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="82">
+      <c r="A59" s="81">
         <v>43936</v>
       </c>
       <c r="B59" s="80"/>
@@ -4564,7 +4654,7 @@
       <c r="F59" s="80"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="82">
+      <c r="A60" s="81">
         <v>43937</v>
       </c>
       <c r="B60" s="80"/>
@@ -4574,7 +4664,7 @@
       <c r="F60" s="80"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="82">
+      <c r="A61" s="81">
         <v>43938</v>
       </c>
       <c r="B61" s="80"/>
@@ -4584,7 +4674,7 @@
       <c r="F61" s="80"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="82">
+      <c r="A62" s="81">
         <v>43943</v>
       </c>
       <c r="B62" s="80"/>
@@ -4594,7 +4684,7 @@
       <c r="F62" s="80"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="82">
+      <c r="A63" s="81">
         <v>43944</v>
       </c>
       <c r="B63" s="80"/>
@@ -4604,7 +4694,7 @@
       <c r="F63" s="80"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="82">
+      <c r="A64" s="81">
         <v>43945</v>
       </c>
       <c r="B64" s="80"/>
@@ -4614,7 +4704,7 @@
       <c r="F64" s="80"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="82">
+      <c r="A65" s="81">
         <v>43948</v>
       </c>
       <c r="B65" s="80"/>
@@ -4624,7 +4714,7 @@
       <c r="F65" s="80"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="82">
+      <c r="A66" s="81">
         <v>43949</v>
       </c>
       <c r="B66" s="80"/>
@@ -4634,7 +4724,7 @@
       <c r="F66" s="80"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="82">
+      <c r="A67" s="81">
         <v>43950</v>
       </c>
       <c r="B67" s="80"/>
@@ -4644,7 +4734,7 @@
       <c r="F67" s="80"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="82">
+      <c r="A68" s="81">
         <v>43951</v>
       </c>
       <c r="B68" s="80"/>
@@ -4654,7 +4744,7 @@
       <c r="F68" s="80"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="82">
+      <c r="A69" s="81">
         <v>43955</v>
       </c>
       <c r="B69" s="80"/>
@@ -4664,7 +4754,7 @@
       <c r="F69" s="80"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="82">
+      <c r="A70" s="81">
         <v>43956</v>
       </c>
       <c r="B70" s="80"/>
@@ -4674,7 +4764,7 @@
       <c r="F70" s="80"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="82">
+      <c r="A71" s="81">
         <v>43957</v>
       </c>
       <c r="B71" s="80"/>
@@ -4684,7 +4774,7 @@
       <c r="F71" s="80"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="82">
+      <c r="A72" s="81">
         <v>43958</v>
       </c>
       <c r="B72" s="80"/>
@@ -4694,7 +4784,7 @@
       <c r="F72" s="80"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="82">
+      <c r="A73" s="81">
         <v>43959</v>
       </c>
       <c r="B73" s="80"/>
@@ -4704,7 +4794,7 @@
       <c r="F73" s="80"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="82">
+      <c r="A74" s="81">
         <v>43962</v>
       </c>
       <c r="B74" s="80"/>
@@ -4714,7 +4804,7 @@
       <c r="F74" s="80"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="82">
+      <c r="A75" s="81">
         <v>43963</v>
       </c>
       <c r="B75" s="80"/>
@@ -4724,7 +4814,7 @@
       <c r="F75" s="80"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="82">
+      <c r="A76" s="81">
         <v>43964</v>
       </c>
       <c r="B76" s="80"/>
@@ -4734,7 +4824,7 @@
       <c r="F76" s="80"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="82">
+      <c r="A77" s="81">
         <v>43965</v>
       </c>
       <c r="B77" s="80"/>
@@ -4744,7 +4834,7 @@
       <c r="F77" s="80"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="82">
+      <c r="A78" s="81">
         <v>43966</v>
       </c>
       <c r="B78" s="80"/>
@@ -4754,7 +4844,7 @@
       <c r="F78" s="80"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="82">
+      <c r="A79" s="81">
         <v>43969</v>
       </c>
       <c r="B79" s="80"/>
@@ -4764,7 +4854,7 @@
       <c r="F79" s="80"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="82">
+      <c r="A80" s="81">
         <v>43970</v>
       </c>
       <c r="B80" s="80"/>
@@ -4774,7 +4864,7 @@
       <c r="F80" s="80"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="82">
+      <c r="A81" s="81">
         <v>43971</v>
       </c>
       <c r="B81" s="80"/>
@@ -4784,7 +4874,7 @@
       <c r="F81" s="80"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="82">
+      <c r="A82" s="81">
         <v>43972</v>
       </c>
       <c r="B82" s="80"/>
@@ -4794,7 +4884,7 @@
       <c r="F82" s="80"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="82">
+      <c r="A83" s="81">
         <v>43973</v>
       </c>
       <c r="B83" s="80"/>
@@ -4804,7 +4894,7 @@
       <c r="F83" s="80"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="82">
+      <c r="A84" s="81">
         <v>43976</v>
       </c>
       <c r="B84" s="80"/>
@@ -4814,7 +4904,7 @@
       <c r="F84" s="80"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="82">
+      <c r="A85" s="81">
         <v>43977</v>
       </c>
       <c r="B85" s="80"/>
@@ -4824,7 +4914,7 @@
       <c r="F85" s="80"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="82">
+      <c r="A86" s="81">
         <v>43978</v>
       </c>
       <c r="B86" s="80"/>
@@ -4834,7 +4924,7 @@
       <c r="F86" s="80"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="82">
+      <c r="A87" s="81">
         <v>43979</v>
       </c>
       <c r="B87" s="80"/>
@@ -4844,7 +4934,7 @@
       <c r="F87" s="80"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="82">
+      <c r="A88" s="81">
         <v>43980</v>
       </c>
       <c r="B88" s="80"/>
@@ -4854,7 +4944,7 @@
       <c r="F88" s="80"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="82">
+      <c r="A89" s="81">
         <v>43983</v>
       </c>
       <c r="B89" s="80"/>
@@ -4864,7 +4954,7 @@
       <c r="F89" s="80"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="82">
+      <c r="A90" s="81">
         <v>43984</v>
       </c>
       <c r="B90" s="80"/>
@@ -4874,7 +4964,7 @@
       <c r="F90" s="80"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="82">
+      <c r="A91" s="81">
         <v>43985</v>
       </c>
       <c r="B91" s="80"/>
@@ -4884,7 +4974,7 @@
       <c r="F91" s="80"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="82">
+      <c r="A92" s="81">
         <v>43986</v>
       </c>
       <c r="B92" s="80"/>
@@ -4894,7 +4984,7 @@
       <c r="F92" s="80"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="82">
+      <c r="A93" s="81">
         <v>43987</v>
       </c>
       <c r="B93" s="80"/>
@@ -4904,7 +4994,7 @@
       <c r="F93" s="80"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="82">
+      <c r="A94" s="81">
         <v>43990</v>
       </c>
       <c r="B94" s="80"/>
@@ -4914,7 +5004,7 @@
       <c r="F94" s="80"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="82">
+      <c r="A95" s="81">
         <v>43991</v>
       </c>
       <c r="B95" s="80"/>
@@ -4924,7 +5014,7 @@
       <c r="F95" s="80"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="82">
+      <c r="A96" s="81">
         <v>43992</v>
       </c>
       <c r="B96" s="80"/>
@@ -4934,7 +5024,7 @@
       <c r="F96" s="80"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="82">
+      <c r="A97" s="81">
         <v>43997</v>
       </c>
       <c r="B97" s="80"/>
@@ -4944,7 +5034,7 @@
       <c r="F97" s="80"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="82">
+      <c r="A98" s="81">
         <v>43998</v>
       </c>
       <c r="B98" s="80"/>
@@ -4954,7 +5044,7 @@
       <c r="F98" s="80"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="82">
+      <c r="A99" s="81">
         <v>43999</v>
       </c>
       <c r="B99" s="80"/>
@@ -4964,7 +5054,7 @@
       <c r="F99" s="80"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="82">
+      <c r="A100" s="81">
         <v>44000</v>
       </c>
       <c r="B100" s="80"/>
@@ -4974,7 +5064,7 @@
       <c r="F100" s="80"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="82">
+      <c r="A101" s="81">
         <v>44001</v>
       </c>
       <c r="B101" s="80"/>
@@ -4984,7 +5074,7 @@
       <c r="F101" s="80"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="82">
+      <c r="A102" s="81">
         <v>44004</v>
       </c>
       <c r="B102" s="80"/>
@@ -4994,7 +5084,7 @@
       <c r="F102" s="80"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="82">
+      <c r="A103" s="81">
         <v>44005</v>
       </c>
       <c r="B103" s="80"/>
